--- a/python/Pi5.xlsx
+++ b/python/Pi5.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-3.30533744324504</v>
+        <v>0.09803524846410711</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.69289594768524</v>
+        <v>0.019996137642989</v>
       </c>
       <c r="C2" s="2">
-        <v>-14.400140608091</v>
+        <v>0.009625980268375481</v>
       </c>
       <c r="D2" s="2">
-        <v>-13.5778784956201</v>
+        <v>0.000877432622908821</v>
       </c>
       <c r="E2" s="2">
-        <v>-6.9961785374556</v>
+        <v>0.000917070400167283</v>
       </c>
       <c r="F2" s="2">
-        <v>-4.34104780612809</v>
+        <v>-0.00604640433304979</v>
       </c>
       <c r="G2" s="2">
-        <v>-3.25081512335039</v>
+        <v>-0.00706315726684672</v>
       </c>
       <c r="H2" s="2">
-        <v>-2.83308208364693</v>
+        <v>0.0152492898715347</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.8439525475368</v>
+        <v>0.00695008648598134</v>
       </c>
       <c r="J2" s="2">
-        <v>-3.17075297582247</v>
+        <v>0.00409011970160319</v>
       </c>
       <c r="K2" s="2">
-        <v>-3.69739225028538</v>
+        <v>-0.018839096365518</v>
       </c>
       <c r="L2" s="2">
-        <v>-4.42321576653372</v>
+        <v>-0.000292141812019534</v>
       </c>
       <c r="M2" s="2">
-        <v>-5.22583602277632</v>
+        <v>0.00400312086993385</v>
       </c>
       <c r="N2" s="2">
-        <v>-5.82620107236915</v>
+        <v>-0.0138122501416877</v>
       </c>
       <c r="O2" s="2">
-        <v>-6.00365909299496</v>
+        <v>-0.00889895977833003</v>
       </c>
       <c r="P2" s="2">
-        <v>-5.83452671171582</v>
+        <v>-0.0174832487002365</v>
       </c>
       <c r="Q2" s="2">
-        <v>-5.46583034392156</v>
+        <v>-0.00314535887189965</v>
       </c>
       <c r="R2" s="2">
-        <v>-5.12686320990975</v>
+        <v>-0.01021362312433</v>
       </c>
       <c r="S2" s="2">
-        <v>-4.93017321575193</v>
+        <v>0.00273854171657968</v>
       </c>
       <c r="T2" s="2">
-        <v>-4.90214233369636</v>
+        <v>-0.00447974151839187</v>
       </c>
       <c r="U2" s="2">
-        <v>-5.02543912527656</v>
+        <v>-0.0172381396614362</v>
       </c>
       <c r="V2" s="2">
-        <v>-5.2636205460416</v>
+        <v>-0.000436916107655025</v>
       </c>
       <c r="W2" s="2">
-        <v>-5.61917399557509</v>
+        <v>-0.00344248674124559</v>
       </c>
       <c r="X2" s="2">
-        <v>-6.00100261837602</v>
+        <v>-0.0143256968942591</v>
       </c>
       <c r="Y2" s="2">
-        <v>-6.43564751479589</v>
+        <v>-0.00561282293542829</v>
       </c>
       <c r="Z2" s="2">
-        <v>-6.80316039904051</v>
+        <v>0.008006422866888791</v>
       </c>
       <c r="AA2" s="2">
-        <v>-7.12612147425593</v>
+        <v>-0.00767087339207723</v>
       </c>
       <c r="AB2" s="2">
-        <v>-7.4280586743531</v>
+        <v>-0.0125700677482957</v>
       </c>
       <c r="AC2" s="2">
-        <v>-7.72373131635767</v>
+        <v>-0.00188670636149906</v>
       </c>
       <c r="AD2" s="2">
-        <v>-8.01760220296617</v>
+        <v>-0.0216852243540517</v>
       </c>
       <c r="AE2" s="2">
-        <v>-8.3069066975791</v>
+        <v>-0.015172918934162</v>
       </c>
       <c r="AF2" s="2">
-        <v>-8.606059821067561</v>
+        <v>-0.0169828469916963</v>
       </c>
       <c r="AG2" s="2">
-        <v>-8.899841979745711</v>
+        <v>-0.00513566563465759</v>
       </c>
       <c r="AH2" s="2">
-        <v>-9.14028408284574</v>
+        <v>0.00671786111394634</v>
       </c>
       <c r="AI2" s="2">
-        <v>-9.22363164473037</v>
+        <v>-0.00514878602540701</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-9.25108200529016</v>
+        <v>-0.0121730334940492</v>
       </c>
       <c r="AK2" s="2">
-        <v>-9.04158998010112</v>
+        <v>-0.0153406833561837</v>
       </c>
       <c r="AL2" s="2">
-        <v>-8.73123397521309</v>
+        <v>-0.00655181643408179</v>
       </c>
       <c r="AM2" s="2">
-        <v>-8.34847149543163</v>
+        <v>-0.017277289337106</v>
       </c>
       <c r="AN2" s="2">
-        <v>-7.91619815396603</v>
+        <v>-0.0198457318759341</v>
       </c>
       <c r="AO2" s="2">
-        <v>-7.48629900191409</v>
+        <v>-0.0136684469664119</v>
       </c>
       <c r="AP2" s="2">
-        <v>-7.05655581290348</v>
+        <v>-0.00763598168166516</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-6.67336231686962</v>
+        <v>-0.00986917380946766</v>
       </c>
       <c r="AR2" s="2">
-        <v>-6.30722926581289</v>
+        <v>-0.0133486514714551</v>
       </c>
       <c r="AS2" s="2">
-        <v>-5.98666236321772</v>
+        <v>-0.0196104353777271</v>
       </c>
       <c r="AT2" s="2">
-        <v>-5.65920523503284</v>
+        <v>-0.00623278290614412</v>
       </c>
       <c r="AU2" s="2">
-        <v>-5.45104232467561</v>
+        <v>0.00569116016040588</v>
       </c>
       <c r="AV2" s="2">
-        <v>-5.20178446229874</v>
+        <v>-0.00428322771699777</v>
       </c>
       <c r="AW2" s="2">
-        <v>-5.01196880294256</v>
+        <v>-0.0111103495584907</v>
       </c>
       <c r="AX2" s="2">
-        <v>-4.84731764214895</v>
+        <v>-0.00740716892815352</v>
       </c>
       <c r="AY2" s="2">
-        <v>-4.68399231252246</v>
+        <v>-0.00307759602385957</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-4.54162766205673</v>
+        <v>-0.0141962618427709</v>
       </c>
       <c r="BA2" s="2">
-        <v>-4.4268172882465</v>
+        <v>-0.010694054364792</v>
       </c>
       <c r="BB2" s="2">
-        <v>-4.31923224195955</v>
+        <v>0.0102237059377761</v>
       </c>
       <c r="BC2" s="2">
-        <v>-4.21718259221568</v>
+        <v>-0.0170849606452468</v>
       </c>
       <c r="BD2" s="2">
-        <v>-4.13372836973546</v>
+        <v>-0.0189832490175598</v>
       </c>
       <c r="BE2" s="2">
-        <v>-4.05331526115925</v>
+        <v>-0.0202949554420934</v>
       </c>
       <c r="BF2" s="2">
-        <v>-4.00062827106658</v>
+        <v>-0.0267461151533977</v>
       </c>
       <c r="BG2" s="2">
-        <v>-3.9515017224681</v>
+        <v>-0.00565218590307346</v>
       </c>
       <c r="BH2" s="2">
-        <v>-3.90574711092839</v>
+        <v>-0.011459759459841</v>
       </c>
       <c r="BI2" s="2">
-        <v>-3.84875366324988</v>
+        <v>-0.00043847636201331</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-3.81624580538889</v>
+        <v>-0.0105588772267786</v>
       </c>
       <c r="BK2" s="2">
-        <v>-3.7765292766094</v>
+        <v>-0.0122939651206224</v>
       </c>
       <c r="BL2" s="2">
-        <v>-3.72650911228171</v>
+        <v>-0.00544100246865186</v>
       </c>
       <c r="BM2" s="2">
-        <v>-3.72759494489945</v>
+        <v>-0.00413366971878854</v>
       </c>
       <c r="BN2" s="2">
-        <v>-3.69544953523778</v>
+        <v>-0.008276865237466241</v>
       </c>
       <c r="BO2" s="2">
-        <v>-3.64537531482851</v>
+        <v>-0.00957097221403018</v>
       </c>
       <c r="BP2" s="2">
-        <v>-3.63742976978186</v>
+        <v>-0.0223135049115051</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-3.60697005176094</v>
+        <v>-0.0222608811575395</v>
       </c>
       <c r="BR2" s="2">
-        <v>-3.59843231235777</v>
+        <v>-0.00966249444486182</v>
       </c>
       <c r="BS2" s="2">
-        <v>-3.55865532239545</v>
+        <v>-0.0152975159952448</v>
       </c>
       <c r="BT2" s="2">
-        <v>-3.54740343182845</v>
+        <v>-0.0108849333596671</v>
       </c>
       <c r="BU2" s="2">
-        <v>-3.54910793137757</v>
+        <v>-0.0110191280054804</v>
       </c>
       <c r="BV2" s="2">
-        <v>-3.50129928684315</v>
+        <v>-0.0172370431227967</v>
       </c>
       <c r="BW2" s="2">
-        <v>-3.49397283438268</v>
+        <v>-0.0128483229226795</v>
       </c>
       <c r="BX2" s="2">
-        <v>-3.48173293530619</v>
+        <v>-0.00941926995968459</v>
       </c>
       <c r="BY2" s="2">
-        <v>-3.46064120001338</v>
+        <v>-0.0102830537585169</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-3.41467348416502</v>
+        <v>-0.00585611541155987</v>
       </c>
       <c r="CA2" s="2">
-        <v>-3.42734673859022</v>
+        <v>0.00633011456924731</v>
       </c>
       <c r="CB2" s="2">
-        <v>-3.38806879198941</v>
+        <v>-0.00582914864219967</v>
       </c>
       <c r="CC2" s="2">
-        <v>-3.3892318214484</v>
+        <v>-0.00717230738805283</v>
       </c>
       <c r="CD2" s="2">
-        <v>-3.37778280365033</v>
+        <v>-0.0153235668540923</v>
       </c>
       <c r="CE2" s="2">
-        <v>-3.35144828839098</v>
+        <v>-0.00739399341212408</v>
       </c>
       <c r="CF2" s="2">
-        <v>-3.36118012071917</v>
+        <v>-0.0065012501400709</v>
       </c>
       <c r="CG2" s="2">
-        <v>-3.33492654143547</v>
+        <v>-0.0115709477368907</v>
       </c>
       <c r="CH2" s="2">
-        <v>-3.30419710598322</v>
+        <v>-0.012815436381083</v>
       </c>
       <c r="CI2" s="2">
-        <v>-3.2788635970246</v>
+        <v>-0.00744934848532617</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-3.31504905992357</v>
+        <v>-0.012139812564428</v>
       </c>
       <c r="CK2" s="2">
-        <v>-3.30096334391192</v>
+        <v>-0.0205023932241999</v>
       </c>
       <c r="CL2" s="2">
-        <v>-3.28843300765331</v>
+        <v>-0.0291426185409317</v>
       </c>
       <c r="CM2" s="2">
-        <v>-3.30400083683378</v>
+        <v>-0.00494351491185018</v>
       </c>
       <c r="CN2" s="2">
-        <v>-3.26949267999471</v>
+        <v>-0.00461930217356597</v>
       </c>
       <c r="CO2" s="2">
-        <v>-3.26621027121658</v>
+        <v>-0.0126520181223832</v>
       </c>
       <c r="CP2" s="2">
-        <v>-3.25329818190472</v>
+        <v>-0.00492140693397554</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-3.25710522000294</v>
+        <v>-0.007837523240089321</v>
       </c>
       <c r="CR2" s="2">
-        <v>-3.25432871042777</v>
+        <v>-0.028160067669703</v>
       </c>
       <c r="CS2" s="2">
-        <v>-3.25895754179209</v>
+        <v>-0.0258421755355073</v>
       </c>
       <c r="CT2" s="2">
-        <v>-3.25873873365293</v>
+        <v>-0.0063867817739587</v>
       </c>
       <c r="CU2" s="2">
-        <v>-3.24251106224874</v>
+        <v>-0.008479141549956871</v>
       </c>
       <c r="CV2" s="2">
-        <v>-3.21466649274992</v>
+        <v>-0.0193095727713149</v>
       </c>
       <c r="CW2" s="2">
-        <v>-3.20885325628709</v>
+        <v>0.00731663726064331</v>
       </c>
       <c r="CX2" s="2">
-        <v>-3.20437162138083</v>
+        <v>-0.0209632262059362</v>
       </c>
       <c r="CY2" s="2">
-        <v>-3.19498147644417</v>
+        <v>-0.00762304797112601</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-3.17668041804067</v>
+        <v>0.0060245115122463</v>
       </c>
       <c r="DA2" s="2">
-        <v>-3.16366556901986</v>
+        <v>-0.0113530981987831</v>
       </c>
       <c r="DB2" s="2">
-        <v>-3.1324515717715</v>
+        <v>-0.0176329057763803</v>
       </c>
       <c r="DC2" s="2">
-        <v>-3.12798116946292</v>
+        <v>-0.0216511615089603</v>
       </c>
       <c r="DD2" s="2">
-        <v>-3.0894693034883</v>
+        <v>-0.00803485968129721</v>
       </c>
       <c r="DE2" s="2">
-        <v>-3.07067113849811</v>
+        <v>-0.0137865008172126</v>
       </c>
       <c r="DF2" s="2">
-        <v>-3.05325986148102</v>
+        <v>-0.0169230324925947</v>
       </c>
       <c r="DG2" s="2">
-        <v>-3.04154332831141</v>
+        <v>-0.0126166321857798</v>
       </c>
       <c r="DH2" s="2">
-        <v>-2.98133667947464</v>
+        <v>-0.0247857265187873</v>
       </c>
       <c r="DI2" s="2">
-        <v>-2.9694705240187</v>
+        <v>-0.0184940184381157</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-2.9423060310102</v>
+        <v>-0.0138446055542992</v>
       </c>
       <c r="DK2" s="2">
-        <v>-2.90307234663953</v>
+        <v>-0.00937600149533882</v>
       </c>
       <c r="DL2" s="2">
-        <v>-2.90284671789931</v>
+        <v>-0.0153997946343788</v>
       </c>
       <c r="DM2" s="2">
-        <v>-2.87376318348645</v>
+        <v>-0.0227033337355131</v>
       </c>
       <c r="DN2" s="2">
-        <v>-2.83215630520686</v>
+        <v>-0.0154486240698833</v>
       </c>
       <c r="DO2" s="2">
-        <v>-2.82250172782294</v>
+        <v>-0.00228746806358058</v>
       </c>
       <c r="DP2" s="2">
-        <v>-2.77704046672634</v>
+        <v>-0.0150699382388262</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-2.77096308940663</v>
+        <v>-0.0209842040461927</v>
       </c>
       <c r="DR2" s="2">
-        <v>-2.72732795267257</v>
+        <v>-0.00955424718677993</v>
       </c>
       <c r="DS2" s="2">
-        <v>-2.7333215550576</v>
+        <v>0.00867749599618875</v>
       </c>
       <c r="DT2" s="2">
-        <v>-2.71590372374128</v>
+        <v>-0.00610599610696404</v>
       </c>
       <c r="DU2" s="2">
-        <v>-2.69000473590788</v>
+        <v>-0.00631451213746994</v>
       </c>
       <c r="DV2" s="2">
-        <v>-2.66339933126502</v>
+        <v>-0.0142589906670377</v>
       </c>
       <c r="DW2" s="2">
-        <v>-2.65109232711082</v>
+        <v>-0.0206262390017438</v>
       </c>
       <c r="DX2" s="2">
-        <v>-2.64138241996968</v>
+        <v>-0.00833758194292428</v>
       </c>
       <c r="DY2" s="2">
-        <v>-2.6589857101474</v>
+        <v>-0.008309163124531151</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-2.63986699914539</v>
+        <v>-0.0175412008807233</v>
       </c>
       <c r="EA2" s="2">
-        <v>-2.64491752398579</v>
+        <v>-0.0207871895835927</v>
       </c>
       <c r="EB2" s="2">
-        <v>-2.64410339793482</v>
+        <v>-0.0197579796068775</v>
       </c>
       <c r="EC2" s="2">
-        <v>-2.66482109567432</v>
+        <v>-0.0254715499565358</v>
       </c>
       <c r="ED2" s="2">
-        <v>-2.67769707115169</v>
+        <v>-0.0111368465042085</v>
       </c>
       <c r="EE2" s="2">
-        <v>-2.66889250284347</v>
+        <v>-0.0334386439455613</v>
       </c>
       <c r="EF2" s="2">
-        <v>-2.70452599486442</v>
+        <v>-0.00169769842936776</v>
       </c>
       <c r="EG2" s="2">
-        <v>-2.70932768431626</v>
+        <v>-0.0190412543751145</v>
       </c>
       <c r="EH2" s="2">
-        <v>-2.74798123822165</v>
+        <v>-0.0256157317052137</v>
       </c>
       <c r="EI2" s="2">
-        <v>-2.76108324160639</v>
+        <v>-0.0300690439441139</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-2.81761671495081</v>
+        <v>-0.0168687326052414</v>
       </c>
       <c r="EK2" s="2">
-        <v>-2.87410875046005</v>
+        <v>-0.0140559477799279</v>
       </c>
       <c r="EL2" s="2">
-        <v>-2.89779702163173</v>
+        <v>-0.0146133568537034</v>
       </c>
       <c r="EM2" s="2">
-        <v>-2.93224461881177</v>
+        <v>-0.0122861305478545</v>
       </c>
       <c r="EN2" s="2">
-        <v>-2.99476895572176</v>
+        <v>-0.0285816600718884</v>
       </c>
       <c r="EO2" s="2">
-        <v>-3.0514393255636</v>
+        <v>-0.0256043719983201</v>
       </c>
       <c r="EP2" s="2">
-        <v>-3.1017461390491</v>
+        <v>-0.0210450027871911</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-3.1756707559778</v>
+        <v>-0.007917139858982861</v>
       </c>
       <c r="ER2" s="2">
-        <v>-3.25641218738084</v>
+        <v>-0.0185326124360838</v>
       </c>
       <c r="ES2" s="2">
-        <v>-3.32217070426334</v>
+        <v>-0.0170606425283253</v>
       </c>
       <c r="ET2" s="2">
-        <v>-3.40999353235054</v>
+        <v>-0.0325095022605378</v>
       </c>
       <c r="EU2" s="2">
-        <v>-3.49547472425533</v>
+        <v>-0.0198423653126359</v>
       </c>
       <c r="EV2" s="2">
-        <v>-3.60244701719701</v>
+        <v>-0.0280543470370707</v>
       </c>
       <c r="EW2" s="2">
-        <v>-3.68088661095856</v>
+        <v>0.00235053958250159</v>
       </c>
       <c r="EX2" s="2">
-        <v>-3.7360522201077</v>
+        <v>-0.008967026975975401</v>
       </c>
       <c r="EY2" s="2">
-        <v>-3.82414832500071</v>
+        <v>-0.0150139981780546</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-3.93551372995836</v>
+        <v>-0.00421437070597205</v>
       </c>
       <c r="FA2" s="2">
-        <v>-4.02430787421995</v>
+        <v>-0.009135592629286491</v>
       </c>
       <c r="FB2" s="2">
-        <v>-4.13582539597372</v>
+        <v>-0.0135558507636789</v>
       </c>
       <c r="FC2" s="2">
-        <v>-4.23274225376876</v>
+        <v>-0.0278092802001985</v>
       </c>
       <c r="FD2" s="2">
-        <v>-4.29739293723678</v>
+        <v>-0.0219223999162024</v>
       </c>
       <c r="FE2" s="2">
-        <v>-4.37233632599929</v>
+        <v>-0.0157933109316448</v>
       </c>
       <c r="FF2" s="2">
-        <v>-4.46484502431409</v>
+        <v>-0.0186362459687019</v>
       </c>
       <c r="FG2" s="2">
-        <v>-4.54379774290069</v>
+        <v>-0.0156493072102026</v>
       </c>
       <c r="FH2" s="2">
-        <v>-4.58797166631219</v>
+        <v>-0.0248851355728853</v>
       </c>
       <c r="FI2" s="2">
-        <v>-4.67356388371749</v>
+        <v>-0.0179065302678935</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-4.72318983836946</v>
+        <v>-0.0120362851242751</v>
       </c>
       <c r="FK2" s="2">
-        <v>-4.7857242146246</v>
+        <v>-0.010932757201152</v>
       </c>
       <c r="FL2" s="2">
-        <v>-4.79469246387227</v>
+        <v>-0.0177139887933242</v>
       </c>
       <c r="FM2" s="2">
-        <v>-4.81724126950113</v>
+        <v>-0.0237115368113149</v>
       </c>
       <c r="FN2" s="2">
-        <v>-4.84686120643799</v>
+        <v>-0.0197784905878641</v>
       </c>
       <c r="FO2" s="2">
-        <v>-4.88428627086822</v>
+        <v>-0.0231763878289606</v>
       </c>
       <c r="FP2" s="2">
-        <v>-4.89359625945352</v>
+        <v>-0.0242032953993505</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-4.94441025345806</v>
+        <v>-0.0187965101942294</v>
       </c>
       <c r="FR2" s="2">
-        <v>-4.949657074266</v>
+        <v>-0.0254299346978579</v>
       </c>
       <c r="FS2" s="2">
-        <v>-4.96027412592792</v>
+        <v>-0.0194649042182752</v>
       </c>
       <c r="FT2" s="2">
-        <v>-4.94780379323821</v>
+        <v>-0.008598132060422439</v>
       </c>
       <c r="FU2" s="2">
-        <v>-4.96166984755526</v>
+        <v>-0.0192777271828435</v>
       </c>
       <c r="FV2" s="2">
-        <v>-4.96461146279865</v>
+        <v>-0.015927784216077</v>
       </c>
       <c r="FW2" s="2">
-        <v>-4.95906317511276</v>
+        <v>-0.0223101842361594</v>
       </c>
       <c r="FX2" s="2">
-        <v>-4.96474170066517</v>
+        <v>-0.0186632512315952</v>
       </c>
       <c r="FY2" s="2">
-        <v>-4.9228796659202</v>
+        <v>-0.0304661289434709</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-4.90498330520308</v>
+        <v>-0.0275821702781898</v>
       </c>
       <c r="GA2" s="2">
-        <v>-4.91590182004307</v>
+        <v>-0.0301053449700074</v>
       </c>
       <c r="GB2" s="2">
-        <v>-4.91942140220085</v>
+        <v>-0.0278025138821069</v>
       </c>
       <c r="GC2" s="2">
-        <v>-4.89835244935833</v>
+        <v>-0.0163425459720175</v>
       </c>
       <c r="GD2" s="2">
-        <v>-4.89374974059049</v>
+        <v>-0.0226188820269434</v>
       </c>
       <c r="GE2" s="2">
-        <v>-4.86891999890671</v>
+        <v>-0.0135844390616427</v>
       </c>
       <c r="GF2" s="2">
-        <v>-4.8519871148628</v>
+        <v>-0.0127853736160287</v>
       </c>
       <c r="GG2" s="2">
-        <v>-4.84339448609048</v>
+        <v>-0.0131223651226277</v>
       </c>
       <c r="GH2" s="2">
-        <v>-4.83313511321804</v>
+        <v>-0.0242955240994754</v>
       </c>
       <c r="GI2" s="2">
-        <v>-4.80589373716443</v>
+        <v>0.00165491630481265</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-4.80462490260772</v>
+        <v>-0.0146455289788882</v>
       </c>
       <c r="GK2" s="2">
-        <v>-4.78173162128868</v>
+        <v>-0.0171089774280397</v>
       </c>
       <c r="GL2" s="2">
-        <v>-4.73092206783029</v>
+        <v>-0.0112436945621663</v>
       </c>
       <c r="GM2" s="2">
-        <v>-4.74772339935397</v>
+        <v>-0.0193109739818297</v>
       </c>
       <c r="GN2" s="2">
-        <v>-4.73015715335336</v>
+        <v>-0.0125984058174885</v>
       </c>
       <c r="GO2" s="2">
-        <v>-4.70416726619096</v>
+        <v>-0.018922048363399</v>
       </c>
       <c r="GP2" s="2">
-        <v>-4.69003941261604</v>
+        <v>-0.00294115603215592</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-4.67621076737676</v>
+        <v>-0.0303691507464423</v>
       </c>
       <c r="GR2" s="2">
-        <v>-4.63635627841286</v>
+        <v>-0.0188295742805254</v>
       </c>
       <c r="GS2" s="2">
-        <v>-4.63310796708248</v>
+        <v>-0.0147838051652343</v>
       </c>
       <c r="GT2" s="2">
-        <v>-4.60879535427258</v>
+        <v>-0.00401339293665762</v>
       </c>
       <c r="GU2" s="2">
-        <v>-4.60660768803218</v>
+        <v>-0.0104148813890727</v>
       </c>
       <c r="GV2" s="2">
-        <v>-4.5756153432042</v>
+        <v>-0.0183726545390421</v>
       </c>
       <c r="GW2" s="2">
-        <v>-4.55898401798004</v>
+        <v>-0.008322086378200011</v>
       </c>
       <c r="GX2" s="2">
-        <v>-4.53806778977544</v>
+        <v>-0.01445798584626</v>
       </c>
       <c r="GY2" s="2">
-        <v>-4.51282396994383</v>
+        <v>-0.00618792412055986</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-4.5154079442912</v>
+        <v>-0.0249446042114285</v>
       </c>
       <c r="HA2" s="2">
-        <v>-4.47921143830734</v>
+        <v>-0.0234518121550524</v>
       </c>
       <c r="HB2" s="2">
-        <v>-4.43773460099717</v>
+        <v>-0.0219150587125396</v>
       </c>
       <c r="HC2" s="2">
-        <v>-4.43306119393275</v>
+        <v>-0.0244060059330316</v>
       </c>
       <c r="HD2" s="2">
-        <v>-4.40572023792874</v>
+        <v>-0.00789181979393257</v>
       </c>
       <c r="HE2" s="2">
-        <v>-4.4003861055679</v>
+        <v>-0.0275711856013017</v>
       </c>
       <c r="HF2" s="2">
-        <v>-4.38359766000355</v>
+        <v>-0.0102234280825096</v>
       </c>
       <c r="HG2" s="2">
-        <v>-4.35652104663821</v>
+        <v>-0.0294874241364537</v>
       </c>
       <c r="HH2" s="2">
-        <v>-4.33509002462692</v>
+        <v>-0.009304969072942679</v>
       </c>
       <c r="HI2" s="2">
-        <v>-4.31803138263219</v>
+        <v>-0.0208188054027157</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-4.31834557968689</v>
+        <v>-0.0203091935735107</v>
       </c>
       <c r="HK2" s="2">
-        <v>-4.27668475004534</v>
+        <v>-0.0191288866428041</v>
       </c>
       <c r="HL2" s="2">
-        <v>-4.25022995432575</v>
+        <v>-0.0250044710104865</v>
       </c>
       <c r="HM2" s="2">
-        <v>-4.22904920975775</v>
+        <v>-0.009123500182748989</v>
       </c>
       <c r="HN2" s="2">
-        <v>-4.22364639983336</v>
+        <v>-0.021332094949434</v>
       </c>
       <c r="HO2" s="2">
-        <v>-4.19431358515488</v>
+        <v>-0.0280048600034059</v>
       </c>
       <c r="HP2" s="2">
-        <v>-4.15002822382159</v>
+        <v>-0.0114332846792873</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-4.14716298091695</v>
+        <v>-0.026049659515085</v>
       </c>
       <c r="HR2" s="2">
-        <v>-4.12595740667302</v>
+        <v>-0.0336946611090151</v>
       </c>
       <c r="HS2" s="2">
-        <v>-4.0968975031147</v>
+        <v>-0.00766276487259717</v>
       </c>
       <c r="HT2" s="2">
-        <v>-4.10110640172883</v>
+        <v>-0.00127178830222704</v>
       </c>
       <c r="HU2" s="2">
-        <v>-4.05072032034839</v>
+        <v>-0.0183890777519391</v>
       </c>
       <c r="HV2" s="2">
-        <v>-4.0532713746394</v>
+        <v>-0.0211431278815454</v>
       </c>
       <c r="HW2" s="2">
-        <v>-4.03136017784652</v>
+        <v>0.00339554210705236</v>
       </c>
       <c r="HX2" s="2">
-        <v>-4.01062897873572</v>
+        <v>-0.0133537084598223</v>
       </c>
       <c r="HY2" s="2">
-        <v>-3.98105877219858</v>
+        <v>-0.0198598874390868</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-3.96133832719537</v>
+        <v>-0.0180493711346754</v>
       </c>
       <c r="IA2" s="2">
-        <v>-3.95728860790628</v>
+        <v>-0.0197120752734769</v>
       </c>
       <c r="IB2" s="2">
-        <v>-3.92039963967717</v>
+        <v>-0.008821604008305639</v>
       </c>
       <c r="IC2" s="2">
-        <v>-3.90108546198442</v>
+        <v>-0.0152202845165843</v>
       </c>
       <c r="ID2" s="2">
-        <v>-3.88473593885703</v>
+        <v>-0.024060879956192</v>
       </c>
       <c r="IE2" s="2">
-        <v>-3.86073993332716</v>
+        <v>-0.009829755001232831</v>
       </c>
       <c r="IF2" s="2">
-        <v>-3.82425903151871</v>
+        <v>-0.0235289660984815</v>
       </c>
       <c r="IG2" s="2">
-        <v>-3.8018589011338</v>
+        <v>-0.0238209439735028</v>
       </c>
       <c r="IH2" s="2">
-        <v>-3.83128833777929</v>
+        <v>-0.01520852007197</v>
       </c>
       <c r="II2" s="2">
-        <v>-3.79911785919162</v>
+        <v>-0.0190371585050598</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-3.79589431954054</v>
+        <v>-0.0257858625921105</v>
       </c>
       <c r="IK2" s="2">
-        <v>-3.76675542928962</v>
+        <v>-0.0133424516784769</v>
       </c>
       <c r="IL2" s="2">
-        <v>-3.75235855257741</v>
+        <v>-0.0269903030799765</v>
       </c>
       <c r="IM2" s="2">
-        <v>-3.75172974516523</v>
+        <v>-0.0242638166884071</v>
       </c>
       <c r="IN2" s="2">
-        <v>-3.71025523454396</v>
+        <v>-0.0080798301547394</v>
       </c>
       <c r="IO2" s="2">
-        <v>-3.7150312046878</v>
+        <v>-0.0228173003685527</v>
       </c>
       <c r="IP2" s="2">
-        <v>-3.6924091642326</v>
+        <v>0.0068018921441924</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-3.67780592215922</v>
+        <v>-0.016590023316949</v>
       </c>
       <c r="IR2" s="2">
-        <v>-3.6673325943997</v>
+        <v>-0.0208957350468329</v>
       </c>
       <c r="IS2" s="2">
-        <v>-3.64940176291143</v>
+        <v>-0.0242704332377547</v>
       </c>
       <c r="IT2" s="2">
-        <v>-3.6661462167311</v>
+        <v>-0.0116227249081486</v>
       </c>
       <c r="IU2" s="2">
-        <v>-3.60303665898813</v>
+        <v>-0.0138585592177868</v>
       </c>
       <c r="IV2" s="2">
-        <v>-3.64290864445333</v>
+        <v>-0.0317000872750519</v>
       </c>
       <c r="IW2" s="2">
-        <v>-3.59650641824753</v>
+        <v>0.00450198487587157</v>
       </c>
       <c r="IX2" s="2">
-        <v>-3.60816113023097</v>
+        <v>-0.0192859939056719</v>
       </c>
       <c r="IY2" s="2">
-        <v>-3.58764714684001</v>
+        <v>-0.0244919773660036</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-3.59084617246691</v>
+        <v>-0.0254478909580479</v>
       </c>
       <c r="JA2" s="2">
-        <v>-3.5891281058602</v>
+        <v>-0.011099116596389</v>
       </c>
       <c r="JB2" s="2">
-        <v>-3.57462397505616</v>
+        <v>-0.00919128972280344</v>
       </c>
       <c r="JC2" s="2">
-        <v>-3.56118183252183</v>
+        <v>-0.0273228759243534</v>
       </c>
       <c r="JD2" s="2">
-        <v>-3.56547553808462</v>
+        <v>-0.0208450098422735</v>
       </c>
       <c r="JE2" s="2">
-        <v>-3.53597760666552</v>
+        <v>-0.00721344907189057</v>
       </c>
       <c r="JF2" s="2">
-        <v>-3.53271410808381</v>
+        <v>0.00459354235116063</v>
       </c>
       <c r="JG2" s="2">
-        <v>-3.51914910937749</v>
+        <v>-0.0137024213508602</v>
       </c>
       <c r="JH2" s="2">
-        <v>-3.51630143389129</v>
+        <v>-0.0198892008004759</v>
       </c>
       <c r="JI2" s="2">
-        <v>-3.51391037138863</v>
+        <v>-0.0201507895255792</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-3.51462461236057</v>
+        <v>-0.0223695773192414</v>
       </c>
       <c r="JK2" s="2">
-        <v>-3.52931957117559</v>
+        <v>-0.0232271568548093</v>
       </c>
       <c r="JL2" s="2">
-        <v>-3.49640684379057</v>
+        <v>-0.00507817329150246</v>
       </c>
       <c r="JM2" s="2">
-        <v>-3.50360626014992</v>
+        <v>-0.0111562108559565</v>
       </c>
       <c r="JN2" s="2">
-        <v>-3.48915449004508</v>
+        <v>0.000514977054360981</v>
       </c>
       <c r="JO2" s="2">
-        <v>-3.51332204038049</v>
+        <v>-0.00692622404211437</v>
       </c>
       <c r="JP2" s="2">
-        <v>-3.49073310777685</v>
+        <v>-0.0219559895829763</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-3.48785341177829</v>
+        <v>-0.0140169761434101</v>
       </c>
       <c r="JR2" s="2">
-        <v>-3.49261497706939</v>
+        <v>-0.0194302002837461</v>
       </c>
       <c r="JS2" s="2">
-        <v>-3.51300286100605</v>
+        <v>-0.0167044516899126</v>
       </c>
       <c r="JT2" s="2">
-        <v>-3.47689119088664</v>
+        <v>-0.0300389884996819</v>
       </c>
       <c r="JU2" s="2">
-        <v>-3.49138435888755</v>
+        <v>-0.0202407601504995</v>
       </c>
       <c r="JV2" s="2">
-        <v>-3.47280350864255</v>
+        <v>-0.0141462103181624</v>
       </c>
       <c r="JW2" s="2">
-        <v>-3.48025787198993</v>
+        <v>-0.0130624174960689</v>
       </c>
       <c r="JX2" s="2">
-        <v>-3.47717025943768</v>
+        <v>-0.0238474150672209</v>
       </c>
       <c r="JY2" s="2">
-        <v>-3.47253263146653</v>
+        <v>-0.00359657137521735</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-3.4781251395812</v>
+        <v>-0.0121038739370557</v>
       </c>
       <c r="KA2" s="2">
-        <v>-3.51517649043043</v>
+        <v>-0.0137212226518337</v>
       </c>
       <c r="KB2" s="2">
-        <v>-3.47789838322538</v>
+        <v>-0.0188126603350802</v>
       </c>
       <c r="KC2" s="2">
-        <v>-3.47101878339887</v>
+        <v>-0.0164518717453658</v>
       </c>
       <c r="KD2" s="2">
-        <v>-3.47402615543731</v>
+        <v>-0.0177078450116022</v>
       </c>
       <c r="KE2" s="2">
-        <v>-3.48749466681004</v>
+        <v>-0.0187483572435562</v>
       </c>
       <c r="KF2" s="2">
-        <v>-3.49190840532588</v>
+        <v>-0.00374642875034281</v>
       </c>
       <c r="KG2" s="2">
-        <v>-3.47233518646458</v>
+        <v>-0.0143807862183725</v>
       </c>
       <c r="KH2" s="2">
-        <v>-3.47537703457377</v>
+        <v>-0.012707031361232</v>
       </c>
       <c r="KI2" s="2">
-        <v>-3.48805647467731</v>
+        <v>-0.0233611991732183</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-3.49307997438793</v>
+        <v>-0.009855484055330051</v>
       </c>
       <c r="KK2" s="2">
-        <v>-3.49434032195681</v>
+        <v>-0.0121558500636857</v>
       </c>
       <c r="KL2" s="2">
-        <v>-3.5064754375524</v>
+        <v>-0.0115969777984099</v>
       </c>
       <c r="KM2" s="2">
-        <v>-3.50571031008042</v>
+        <v>-0.0132717641499609</v>
       </c>
       <c r="KN2" s="2">
-        <v>-3.50916481208355</v>
+        <v>-0.0202264279533816</v>
       </c>
       <c r="KO2" s="2">
-        <v>-3.48611118349042</v>
+        <v>-0.00831574676440011</v>
       </c>
       <c r="KP2" s="2">
-        <v>-3.50598398842069</v>
+        <v>-0.0115305421826949</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-3.48252007368022</v>
+        <v>-0.0182315112750375</v>
       </c>
       <c r="KR2" s="2">
-        <v>-3.50103253421808</v>
+        <v>-0.00431303302838837</v>
       </c>
       <c r="KS2" s="2">
-        <v>-3.50952503120559</v>
+        <v>-0.0154459159957635</v>
       </c>
       <c r="KT2" s="2">
-        <v>-3.49051479431084</v>
+        <v>-0.0137060754478334</v>
       </c>
       <c r="KU2" s="2">
-        <v>-3.49614294318197</v>
+        <v>-0.011312202730687</v>
       </c>
       <c r="KV2" s="2">
-        <v>-3.51273218653274</v>
+        <v>-0.00279453082776138</v>
       </c>
       <c r="KW2" s="2">
-        <v>-3.50925253326898</v>
+        <v>-0.00239377206491154</v>
       </c>
       <c r="KX2" s="2">
-        <v>-3.50584119771166</v>
+        <v>-0.0105450427717465</v>
       </c>
       <c r="KY2" s="2">
-        <v>-3.53231971950345</v>
+        <v>-0.00907554242660631</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-3.51654746888064</v>
+        <v>-0.0158535371106224</v>
       </c>
       <c r="LA2" s="2">
-        <v>-3.50215887642135</v>
+        <v>-0.0107289398687471</v>
       </c>
       <c r="LB2" s="2">
-        <v>-3.52688016290511</v>
+        <v>-0.0218396299482744</v>
       </c>
       <c r="LC2" s="2">
-        <v>-3.53107850141566</v>
+        <v>-0.014397269951936</v>
       </c>
       <c r="LD2" s="2">
-        <v>-3.53225702044674</v>
+        <v>-0.00230995438023395</v>
       </c>
       <c r="LE2" s="2">
-        <v>-3.53337390677293</v>
+        <v>-0.0123264687818434</v>
       </c>
       <c r="LF2" s="2">
-        <v>-3.5411016677822</v>
+        <v>-0.0103419345187849</v>
       </c>
       <c r="LG2" s="2">
-        <v>-3.52314057707588</v>
+        <v>-0.015911574931628</v>
       </c>
       <c r="LH2" s="2">
-        <v>-3.51330612661775</v>
+        <v>-0.009558443736133701</v>
       </c>
       <c r="LI2" s="2">
-        <v>-3.50655760021327</v>
+        <v>-0.0214854472722404</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-3.50808058415521</v>
+        <v>-0.0133647887385367</v>
       </c>
       <c r="LK2" s="2">
-        <v>-3.5234606654332</v>
+        <v>-0.0175020859277506</v>
       </c>
       <c r="LL2" s="2">
-        <v>-3.51662663733281</v>
+        <v>-0.0200983695786383</v>
       </c>
       <c r="LM2" s="2">
-        <v>-3.48002084791147</v>
+        <v>-0.0120065600531199</v>
       </c>
       <c r="LN2" s="2">
-        <v>-3.47961315527685</v>
+        <v>-0.0220029531758725</v>
       </c>
       <c r="LO2" s="2">
-        <v>-3.49989615265602</v>
+        <v>-0.0221041368716368</v>
       </c>
       <c r="LP2" s="2">
-        <v>-3.49654795545565</v>
+        <v>-0.0168006362310996</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-3.47964554383194</v>
+        <v>-0.0130592590394338</v>
       </c>
       <c r="LR2" s="2">
-        <v>-3.49684722744829</v>
+        <v>-0.00201988567216275</v>
       </c>
       <c r="LS2" s="2">
-        <v>-3.48698149785</v>
+        <v>-0.0151123078253702</v>
       </c>
       <c r="LT2" s="2">
-        <v>-3.48348386917643</v>
+        <v>-0.0266594200081081</v>
       </c>
       <c r="LU2" s="2">
-        <v>-3.49611194991205</v>
+        <v>-0.017986961890467</v>
       </c>
       <c r="LV2" s="2">
-        <v>-3.47486448823253</v>
+        <v>-0.0201822759213008</v>
       </c>
       <c r="LW2" s="2">
-        <v>-3.46117982814021</v>
+        <v>-0.0222049567503771</v>
       </c>
       <c r="LX2" s="2">
-        <v>-3.47657900582209</v>
+        <v>-0.00923182744017818</v>
       </c>
       <c r="LY2" s="2">
-        <v>-3.45552068208161</v>
+        <v>-0.0195157570472785</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-3.46242724235363</v>
+        <v>-0.0209144974915173</v>
       </c>
       <c r="MA2" s="2">
-        <v>-3.46170172613592</v>
+        <v>-0.00767674854013529</v>
       </c>
       <c r="MB2" s="2">
-        <v>-3.43692214649596</v>
+        <v>-0.0162219510100859</v>
       </c>
       <c r="MC2" s="2">
-        <v>-3.43168400442519</v>
+        <v>-0.00485232017952024</v>
       </c>
       <c r="MD2" s="2">
-        <v>-3.40677714137087</v>
+        <v>-0.009350057976811821</v>
       </c>
       <c r="ME2" s="2">
-        <v>-3.41256590515761</v>
+        <v>-0.0107826847345772</v>
       </c>
       <c r="MF2" s="2">
-        <v>-3.37877943654903</v>
+        <v>-0.0132493178251431</v>
       </c>
       <c r="MG2" s="2">
-        <v>-3.40589758100598</v>
+        <v>-0.0329060863852433</v>
       </c>
       <c r="MH2" s="2">
-        <v>-3.38889849729114</v>
+        <v>-0.0322099821688884</v>
       </c>
       <c r="MI2" s="2">
-        <v>-3.37928689271752</v>
+        <v>-0.0251678198928524</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-3.37739899848023</v>
+        <v>-0.012554392672438</v>
       </c>
       <c r="MK2" s="2">
-        <v>-3.38135299637723</v>
+        <v>-0.0185611389430631</v>
       </c>
       <c r="ML2" s="2">
-        <v>-3.36033189230167</v>
+        <v>-0.00329850378224222</v>
       </c>
       <c r="MM2" s="2">
-        <v>-3.34860443283329</v>
+        <v>-0.0172928548008436</v>
       </c>
       <c r="MN2" s="2">
-        <v>-3.34264436503543</v>
+        <v>-0.0159640782611169</v>
       </c>
       <c r="MO2" s="2">
-        <v>-3.35000263557596</v>
+        <v>-0.0259924579319745</v>
       </c>
       <c r="MP2" s="2">
-        <v>-3.34879186585146</v>
+        <v>-0.0241186559522885</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-3.3333813234592</v>
+        <v>-0.00578670734966874</v>
       </c>
       <c r="MR2" s="2">
-        <v>-3.34044654758601</v>
+        <v>-0.009563516844262709</v>
       </c>
       <c r="MS2" s="2">
-        <v>-3.31161886770685</v>
+        <v>-0.0057315641796169</v>
       </c>
       <c r="MT2" s="2">
-        <v>-3.3306951253442</v>
+        <v>-0.00702151622333628</v>
       </c>
       <c r="MU2" s="2">
-        <v>-3.26574776859954</v>
+        <v>-0.0357146038072392</v>
       </c>
       <c r="MV2" s="2">
-        <v>-3.2858630435496</v>
+        <v>-0.0155893240554007</v>
       </c>
       <c r="MW2" s="2">
-        <v>-3.28683409711039</v>
+        <v>-0.0235657173024548</v>
       </c>
       <c r="MX2" s="2">
-        <v>-3.301544738597</v>
+        <v>-0.00587201774002616</v>
       </c>
       <c r="MY2" s="2">
-        <v>-3.2850440907187</v>
+        <v>-0.0146355165178773</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-3.29307925899086</v>
+        <v>-0.01536491948672</v>
       </c>
       <c r="NA2" s="2">
-        <v>-3.27833321188477</v>
+        <v>-0.0165219108207942</v>
       </c>
       <c r="NB2" s="2">
-        <v>-3.27271335833081</v>
+        <v>-0.0183014177204965</v>
       </c>
       <c r="NC2" s="2">
-        <v>-3.28367019237042</v>
+        <v>-0.0266715059648772</v>
       </c>
       <c r="ND2" s="2">
-        <v>-3.30507239658398</v>
+        <v>-0.0115601329391298</v>
       </c>
       <c r="NE2" s="2">
-        <v>-3.25589510257363</v>
+        <v>-0.0222301583334653</v>
       </c>
       <c r="NF2" s="2">
-        <v>-3.23534121775528</v>
+        <v>-0.0279914955064011</v>
       </c>
       <c r="NG2" s="2">
-        <v>-3.26985661396358</v>
+        <v>-0.0114493411892589</v>
       </c>
       <c r="NH2" s="2">
-        <v>-3.27515153824804</v>
+        <v>-0.0198695926129905</v>
       </c>
       <c r="NI2" s="2">
-        <v>-3.26310174398332</v>
+        <v>-0.029117605832909</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-3.24980662018136</v>
+        <v>-0.0150570035542626</v>
       </c>
       <c r="NK2" s="2">
-        <v>-3.25876877778183</v>
+        <v>-0.00125089187895567</v>
       </c>
       <c r="NL2" s="2">
-        <v>-3.22844243289462</v>
+        <v>-0.0149551444681183</v>
       </c>
       <c r="NM2" s="2">
-        <v>-3.24940160106905</v>
+        <v>-0.0194723382028237</v>
       </c>
       <c r="NN2" s="2">
-        <v>-3.21982206893799</v>
+        <v>-0.0235863970675243</v>
       </c>
       <c r="NO2" s="2">
-        <v>-3.19987928085832</v>
+        <v>-0.0178905176976596</v>
       </c>
       <c r="NP2" s="2">
-        <v>-3.22027059516828</v>
+        <v>-0.0008276259795342551</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-3.2086281918412</v>
+        <v>0.0036789041511429</v>
       </c>
       <c r="NR2" s="2">
-        <v>-3.2205102047676</v>
+        <v>-0.0123571701345865</v>
       </c>
       <c r="NS2" s="2">
-        <v>-3.2221317129061</v>
+        <v>-0.0190311313765179</v>
       </c>
       <c r="NT2" s="2">
-        <v>-3.22194662495925</v>
+        <v>-0.0177606210734128</v>
       </c>
       <c r="NU2" s="2">
-        <v>-3.2094589161979</v>
+        <v>-0.0117214326242847</v>
       </c>
       <c r="NV2" s="2">
-        <v>-3.20732249611358</v>
+        <v>-0.0286669265324716</v>
       </c>
       <c r="NW2" s="2">
-        <v>-3.19583665122508</v>
+        <v>-0.0166956373959715</v>
       </c>
       <c r="NX2" s="2">
-        <v>-3.1974943360055</v>
+        <v>-0.0144161136144723</v>
       </c>
       <c r="NY2" s="2">
-        <v>-3.20881629272215</v>
+        <v>-0.0135989535870856</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-3.19500781672799</v>
+        <v>-0.01080087226291</v>
       </c>
       <c r="OA2" s="2">
-        <v>-3.18522451479711</v>
+        <v>-0.0116077632730206</v>
       </c>
       <c r="OB2" s="2">
-        <v>-3.19428539072799</v>
+        <v>-0.0179311462381489</v>
       </c>
       <c r="OC2" s="2">
-        <v>-3.21374180043721</v>
+        <v>-0.0180704410860726</v>
       </c>
       <c r="OD2" s="2">
-        <v>-3.16573282570781</v>
+        <v>-0.0186178024573015</v>
       </c>
       <c r="OE2" s="2">
-        <v>-3.20059123981088</v>
+        <v>-0.0136849006412789</v>
       </c>
       <c r="OF2" s="2">
-        <v>-3.20038799490229</v>
+        <v>-0.0313837747549438</v>
       </c>
       <c r="OG2" s="2">
-        <v>-3.1995002860808</v>
+        <v>-0.0221971863174019</v>
       </c>
       <c r="OH2" s="2">
-        <v>-3.18838477120082</v>
+        <v>-0.0102286502264966</v>
       </c>
       <c r="OI2" s="2">
-        <v>-3.19351677948207</v>
+        <v>-0.0172042787325026</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-3.19789465057114</v>
+        <v>-0.0230030303105833</v>
       </c>
       <c r="OK2" s="2">
-        <v>-3.17897204720371</v>
+        <v>-0.0238584076039104</v>
       </c>
       <c r="OL2" s="2">
-        <v>-3.17595557605989</v>
+        <v>-0.0151201030263332</v>
       </c>
       <c r="OM2" s="2">
-        <v>-3.18761336419817</v>
+        <v>-0.0197086931639782</v>
       </c>
       <c r="ON2" s="2">
-        <v>-3.1637694279421</v>
+        <v>-0.00162009146315031</v>
       </c>
       <c r="OO2" s="2">
-        <v>-3.16379315870331</v>
+        <v>-0.0138218392494138</v>
       </c>
       <c r="OP2" s="2">
-        <v>-3.16838935353277</v>
+        <v>-0.0129907265005457</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-3.19038631888595</v>
+        <v>-0.00161795228419875</v>
       </c>
       <c r="OR2" s="2">
-        <v>-3.17726796150187</v>
+        <v>-0.0168749201543578</v>
       </c>
       <c r="OS2" s="2">
-        <v>-3.17132875091259</v>
+        <v>-0.0080439054410125</v>
       </c>
       <c r="OT2" s="2">
-        <v>-3.18627427059337</v>
+        <v>0.00603314471620296</v>
       </c>
       <c r="OU2" s="2">
-        <v>-3.17959726723995</v>
+        <v>-0.0149082037365158</v>
       </c>
       <c r="OV2" s="2">
-        <v>-3.17964107836778</v>
+        <v>-0.0138424662298032</v>
       </c>
       <c r="OW2" s="2">
-        <v>-3.16539038940561</v>
+        <v>-0.0139636123983726</v>
       </c>
       <c r="OX2" s="2">
-        <v>-3.18821717543968</v>
+        <v>-0.0112985347630191</v>
       </c>
       <c r="OY2" s="2">
-        <v>-3.16906854762928</v>
+        <v>-0.00680639085571329</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-3.1715059244037</v>
+        <v>-0.0107560366800341</v>
       </c>
       <c r="PA2" s="2">
-        <v>-3.16496834445673</v>
+        <v>-0.0123773721890491</v>
       </c>
       <c r="PB2" s="2">
-        <v>-3.17165981407984</v>
+        <v>-0.0173908233920258</v>
       </c>
       <c r="PC2" s="2">
-        <v>-3.18009915738505</v>
+        <v>-0.008647047983068611</v>
       </c>
       <c r="PD2" s="2">
-        <v>-3.16891561690365</v>
+        <v>-0.0178990899394565</v>
       </c>
       <c r="PE2" s="2">
-        <v>-3.18734150336076</v>
+        <v>-0.00204354181240501</v>
       </c>
       <c r="PF2" s="2">
-        <v>-3.18413549969636</v>
+        <v>0.00591823726956779</v>
       </c>
       <c r="PG2" s="2">
-        <v>-3.18156807426775</v>
+        <v>-0.0199554658864738</v>
       </c>
       <c r="PH2" s="2">
-        <v>-3.16880671436553</v>
+        <v>0.00477553282927277</v>
       </c>
       <c r="PI2" s="2">
-        <v>-3.16056253693125</v>
+        <v>-0.00454590278158406</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-3.15758844568572</v>
+        <v>-0.00418764642779386</v>
       </c>
       <c r="PK2" s="2">
-        <v>-3.16312518334163</v>
+        <v>-0.0173093241188844</v>
       </c>
       <c r="PL2" s="2">
-        <v>-3.18109443204967</v>
+        <v>-0.0248959426875884</v>
       </c>
       <c r="PM2" s="2">
-        <v>-3.18310264207498</v>
+        <v>-0.0144788569559212</v>
       </c>
       <c r="PN2" s="2">
-        <v>-3.17564961872558</v>
+        <v>-0.0121230387344491</v>
       </c>
       <c r="PO2" s="2">
-        <v>-3.18051906008514</v>
+        <v>-0.00854066037219201</v>
       </c>
       <c r="PP2" s="2">
-        <v>-3.202392275361</v>
+        <v>-0.0157563839787545</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-3.18730614241208</v>
+        <v>-0.00303768113650383</v>
       </c>
       <c r="PR2" s="2">
-        <v>-3.19386699170379</v>
+        <v>-0.00196304328626213</v>
       </c>
       <c r="PS2" s="2">
-        <v>-3.17120005642495</v>
+        <v>-0.00105153135723857</v>
       </c>
       <c r="PT2" s="2">
-        <v>-3.1952601197101</v>
+        <v>-0.00921199311553845</v>
       </c>
       <c r="PU2" s="2">
-        <v>-3.19507757819655</v>
+        <v>-0.00361959289961891</v>
       </c>
       <c r="PV2" s="2">
-        <v>-3.20758714549084</v>
+        <v>-0.00462871203572668</v>
       </c>
       <c r="PW2" s="2">
-        <v>-3.21280889843083</v>
+        <v>-0.0119967735527931</v>
       </c>
       <c r="PX2" s="2">
-        <v>-3.19489348071255</v>
+        <v>-0.0117651117162562</v>
       </c>
       <c r="PY2" s="2">
-        <v>-3.21964610241318</v>
+        <v>-0.00550659665855753</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-3.22383689727554</v>
+        <v>-0.00278382759129834</v>
       </c>
       <c r="QA2" s="2">
-        <v>-3.23606048696897</v>
+        <v>-0.0116880351121585</v>
       </c>
       <c r="QB2" s="2">
-        <v>-3.24604444993521</v>
+        <v>-0.0112841782509565</v>
       </c>
       <c r="QC2" s="2">
-        <v>-3.24670538523114</v>
+        <v>-0.0230791468550227</v>
       </c>
       <c r="QD2" s="2">
-        <v>-3.23356666273287</v>
+        <v>-0.0020420732098619</v>
       </c>
       <c r="QE2" s="2">
-        <v>-3.2530832652528</v>
+        <v>-0.0178610240012561</v>
       </c>
       <c r="QF2" s="2">
-        <v>-3.24446716949473</v>
+        <v>-0.0167814915201906</v>
       </c>
       <c r="QG2" s="2">
-        <v>-3.26690562476203</v>
+        <v>-0.0211090763615695</v>
       </c>
       <c r="QH2" s="2">
-        <v>-3.2686887021215</v>
+        <v>-0.0172027063917911</v>
       </c>
       <c r="QI2" s="2">
-        <v>-3.28994842666668</v>
+        <v>-0.0123531755751821</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-3.29531574429319</v>
+        <v>-0.0132352789497796</v>
       </c>
       <c r="QK2" s="2">
-        <v>-3.2684401229051</v>
+        <v>-0.0147187377134482</v>
       </c>
       <c r="QL2" s="2">
-        <v>-3.32965540100003</v>
+        <v>-0.00879021779386586</v>
       </c>
       <c r="QM2" s="2">
-        <v>-3.32335807861745</v>
+        <v>-0.00386157282645129</v>
       </c>
       <c r="QN2" s="2">
-        <v>-3.29179503886682</v>
+        <v>-0.0131795665257568</v>
       </c>
       <c r="QO2" s="2">
-        <v>-3.32286596977279</v>
+        <v>0.00346560097050029</v>
       </c>
       <c r="QP2" s="2">
-        <v>-3.3505426698376</v>
+        <v>-0.014651674329294</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-3.33103419309626</v>
+        <v>-0.0146832272362267</v>
       </c>
       <c r="QR2" s="2">
-        <v>-3.36314820446879</v>
+        <v>-0.0201115192563769</v>
       </c>
       <c r="QS2" s="2">
-        <v>-3.3822974376768</v>
+        <v>-0.01498790733134</v>
       </c>
       <c r="QT2" s="2">
-        <v>-3.38326097466932</v>
+        <v>-0.00735229809538403</v>
       </c>
       <c r="QU2" s="2">
-        <v>-3.38982224168003</v>
+        <v>-0.011791442494186</v>
       </c>
       <c r="QV2" s="2">
-        <v>-3.39805481367307</v>
+        <v>-0.00210471666976437</v>
       </c>
       <c r="QW2" s="2">
-        <v>-3.39487019575798</v>
+        <v>-0.00692676607170016</v>
       </c>
       <c r="QX2" s="2">
-        <v>-3.41633466932985</v>
+        <v>-0.0116603351887616</v>
       </c>
       <c r="QY2" s="2">
-        <v>-3.4230499634275</v>
+        <v>-0.0205685141115372</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-3.43643603317719</v>
+        <v>-0.0181475277483325</v>
       </c>
       <c r="RA2" s="2">
-        <v>-3.4716472880509</v>
+        <v>-0.0236075823983476</v>
       </c>
       <c r="RB2" s="2">
-        <v>-3.4668643653391</v>
+        <v>-0.0109212813357457</v>
       </c>
       <c r="RC2" s="2">
-        <v>-3.46688051866651</v>
+        <v>-0.0105851769179141</v>
       </c>
       <c r="RD2" s="2">
-        <v>-3.5030676666502</v>
+        <v>-0.0158784422584595</v>
       </c>
       <c r="RE2" s="2">
-        <v>-3.53677055298879</v>
+        <v>-0.00653720791388524</v>
       </c>
       <c r="RF2" s="2">
-        <v>-3.52297046680494</v>
+        <v>-0.00327324593468197</v>
       </c>
       <c r="RG2" s="2">
-        <v>-3.52824517875248</v>
+        <v>-0.0119476291930846</v>
       </c>
       <c r="RH2" s="2">
-        <v>-3.53030440780785</v>
+        <v>-0.00475990511385131</v>
       </c>
       <c r="RI2" s="2">
-        <v>-3.56331570938564</v>
+        <v>-0.013173323646985</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-3.56802430401692</v>
+        <v>-0.0174206666588995</v>
       </c>
       <c r="RK2" s="2">
-        <v>-3.60305564846788</v>
+        <v>-0.0224274337299031</v>
       </c>
       <c r="RL2" s="2">
-        <v>-3.57784996081698</v>
+        <v>-0.0182768804357599</v>
       </c>
       <c r="RM2" s="2">
-        <v>-3.57516774127154</v>
+        <v>-0.0236611459904846</v>
       </c>
       <c r="RN2" s="2">
-        <v>-3.60197747526114</v>
+        <v>-0.012659608483863</v>
       </c>
       <c r="RO2" s="2">
-        <v>-3.60068580930046</v>
+        <v>0.000238837073727797</v>
       </c>
       <c r="RP2" s="2">
-        <v>-3.6094427536388</v>
+        <v>-0.0140797105876998</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-3.62381468018364</v>
+        <v>-0.0165141301029276</v>
       </c>
       <c r="RR2" s="2">
-        <v>-3.62503832644852</v>
+        <v>-0.00752590053068226</v>
       </c>
       <c r="RS2" s="2">
-        <v>-3.64472761602108</v>
+        <v>-0.0119455344926396</v>
       </c>
       <c r="RT2" s="2">
-        <v>-3.60306589751207</v>
+        <v>-0.00279293474616971</v>
       </c>
       <c r="RU2" s="2">
-        <v>-3.63277543786995</v>
+        <v>-0.0151279990331427</v>
       </c>
       <c r="RV2" s="2">
-        <v>-3.64135856427931</v>
+        <v>-0.0207744005042976</v>
       </c>
       <c r="RW2" s="2">
-        <v>-3.63472285477352</v>
+        <v>-0.00569537951281174</v>
       </c>
       <c r="RX2" s="2">
-        <v>-3.62076145424196</v>
+        <v>-0.0076951656523685</v>
       </c>
       <c r="RY2" s="2">
-        <v>-3.64333386941574</v>
+        <v>-0.009620773521373509</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-3.63024500010426</v>
+        <v>-0.0105367171298883</v>
       </c>
       <c r="SA2" s="2">
-        <v>-3.62679386985969</v>
+        <v>-0.0112157958509888</v>
       </c>
       <c r="SB2" s="2">
-        <v>-3.61315825439411</v>
+        <v>-0.0145252557152513</v>
       </c>
       <c r="SC2" s="2">
-        <v>-3.61954781821527</v>
+        <v>-0.0110441948730791</v>
       </c>
       <c r="SD2" s="2">
-        <v>-3.61108704649005</v>
+        <v>-0.0101456172081468</v>
       </c>
       <c r="SE2" s="2">
-        <v>-3.59977066856102</v>
+        <v>-0.0197082268494062</v>
       </c>
       <c r="SF2" s="2">
-        <v>-3.59410984538632</v>
+        <v>-0.008780055939726869</v>
       </c>
       <c r="SG2" s="2">
-        <v>-3.58402843470416</v>
+        <v>-0.0221515740320019</v>
       </c>
       <c r="SH2" s="2">
-        <v>-3.58045531700009</v>
+        <v>-0.00643004870065912</v>
       </c>
       <c r="SI2" s="2">
-        <v>-3.55703705465267</v>
+        <v>-0.00570758045407864</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-3.56095695780519</v>
+        <v>-0.00885159782964039</v>
       </c>
       <c r="SK2" s="2">
-        <v>-3.53833917244604</v>
+        <v>-0.0139015257809617</v>
       </c>
       <c r="SL2" s="2">
-        <v>-3.55247384368093</v>
+        <v>-0.0273777272318112</v>
       </c>
       <c r="SM2" s="2">
-        <v>-3.51935292616938</v>
+        <v>-0.00811566256481918</v>
       </c>
       <c r="SN2" s="2">
-        <v>-3.49872619293745</v>
+        <v>-0.007950128628265669</v>
       </c>
       <c r="SO2" s="2">
-        <v>-3.48916500475635</v>
+        <v>-0.00179782306843538</v>
       </c>
       <c r="SP2" s="2">
-        <v>-3.48320073242689</v>
+        <v>-0.00977552103162635</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-3.47152038184933</v>
+        <v>-0.00554486518835686</v>
       </c>
       <c r="SR2" s="2">
-        <v>-3.46367297403351</v>
+        <v>-0.0176545167700457</v>
       </c>
       <c r="SS2" s="2">
-        <v>-3.44229690562404</v>
+        <v>-0.009282877538720881</v>
       </c>
       <c r="ST2" s="2">
-        <v>-3.43006981310368</v>
+        <v>-0.017021653683743</v>
       </c>
       <c r="SU2" s="2">
-        <v>-3.40992482259482</v>
+        <v>-0.0239443962900748</v>
       </c>
       <c r="SV2" s="2">
-        <v>-3.40056060105812</v>
+        <v>-0.00421878351560051</v>
       </c>
       <c r="SW2" s="2">
-        <v>-3.39196811741865</v>
+        <v>-0.00748065672165182</v>
       </c>
       <c r="SX2" s="2">
-        <v>-3.38198638065462</v>
+        <v>-0.007962498862194309</v>
       </c>
       <c r="SY2" s="2">
-        <v>-3.36069374727037</v>
+        <v>-0.007992839516560419</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-3.36594158008615</v>
+        <v>-0.0176993608653634</v>
       </c>
       <c r="TA2" s="2">
-        <v>-3.32701446896555</v>
+        <v>-0.00979784580427516</v>
       </c>
       <c r="TB2" s="2">
-        <v>-3.32661258612625</v>
+        <v>-0.0122100933450965</v>
       </c>
       <c r="TC2" s="2">
-        <v>-3.30938863143356</v>
+        <v>-0.0182671874640883</v>
       </c>
       <c r="TD2" s="2">
-        <v>-3.31748225131686</v>
+        <v>-0.0147008309314971</v>
       </c>
       <c r="TE2" s="2">
-        <v>-3.28524454246134</v>
+        <v>-0.0238739929194057</v>
       </c>
       <c r="TF2" s="2">
-        <v>-3.26433041272414</v>
+        <v>-0.00379112374534182</v>
       </c>
       <c r="TG2" s="2">
-        <v>-3.2794866358666</v>
+        <v>-0.00574636698253932</v>
       </c>
       <c r="TH2" s="2">
-        <v>-3.25787691806066</v>
+        <v>-0.00186824083629629</v>
       </c>
       <c r="TI2" s="2">
-        <v>-3.23048127509256</v>
+        <v>-0.00972479390418292</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-3.23648815005876</v>
+        <v>-0.0160642767669672</v>
       </c>
       <c r="TK2" s="2">
-        <v>-3.2364732084847</v>
+        <v>-0.0110928674718214</v>
       </c>
       <c r="TL2" s="2">
-        <v>-3.19609999996764</v>
+        <v>-0.0111176627605933</v>
       </c>
       <c r="TM2" s="2">
-        <v>-3.19207340542349</v>
+        <v>-0.0105979942027228</v>
       </c>
       <c r="TN2" s="2">
-        <v>-3.1737937835274</v>
+        <v>-0.0135780967560362</v>
       </c>
       <c r="TO2" s="2">
-        <v>-3.17198953043585</v>
+        <v>-0.0109214051022619</v>
       </c>
       <c r="TP2" s="2">
-        <v>-3.1218325081807</v>
+        <v>-0.0152647117186853</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-3.13904144358894</v>
+        <v>-0.0136195910803721</v>
       </c>
       <c r="TR2" s="2">
-        <v>-3.1264283827868</v>
+        <v>-0.0124953686910152</v>
       </c>
       <c r="TS2" s="2">
-        <v>-3.11564144677795</v>
+        <v>-0.011545059379892</v>
       </c>
       <c r="TT2" s="2">
-        <v>-3.12470221853474</v>
+        <v>-0.0101543890230231</v>
       </c>
       <c r="TU2" s="2">
-        <v>-3.09445670528537</v>
+        <v>-0.00763369515692017</v>
       </c>
       <c r="TV2" s="2">
-        <v>-3.10466887802464</v>
+        <v>-0.0248616277119955</v>
       </c>
       <c r="TW2" s="2">
-        <v>-3.07093496865603</v>
+        <v>-0.0191996647866667</v>
       </c>
       <c r="TX2" s="2">
-        <v>-3.08420036342089</v>
+        <v>-0.00717930611603216</v>
       </c>
       <c r="TY2" s="2">
-        <v>-3.06902920779731</v>
+        <v>-0.0281206473518149</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-3.04660993487789</v>
+        <v>-0.0159168713837658</v>
       </c>
       <c r="UA2" s="2">
-        <v>-3.06086079757483</v>
+        <v>-0.0183060913370383</v>
       </c>
       <c r="UB2" s="2">
-        <v>-3.03376039736098</v>
+        <v>-0.0151105918999261</v>
       </c>
       <c r="UC2" s="2">
-        <v>-3.03048687535378</v>
+        <v>-0.0132075150573317</v>
       </c>
       <c r="UD2" s="2">
-        <v>-3.00688612705247</v>
+        <v>-0.0139266486141336</v>
       </c>
       <c r="UE2" s="2">
-        <v>-3.02665948957369</v>
+        <v>-0.008616108565927771</v>
       </c>
       <c r="UF2" s="2">
-        <v>-3.00721023838732</v>
+        <v>-0.0121236088117975</v>
       </c>
       <c r="UG2" s="2">
-        <v>-2.98275103361649</v>
+        <v>-0.008558937684381131</v>
       </c>
       <c r="UH2" s="2">
-        <v>-2.97066153354807</v>
+        <v>-0.00463055705923699</v>
       </c>
       <c r="UI2" s="2">
-        <v>-2.94984579879149</v>
+        <v>-0.0149499688112386</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-2.94846258833258</v>
+        <v>-0.0116039030624816</v>
       </c>
       <c r="UK2" s="2">
-        <v>-2.95692648464394</v>
+        <v>-0.0226818763413724</v>
       </c>
       <c r="UL2" s="2">
-        <v>-2.94419173996209</v>
+        <v>-0.0196349651858927</v>
       </c>
       <c r="UM2" s="2">
-        <v>-2.93301033531858</v>
+        <v>-0.0200021142284187</v>
       </c>
       <c r="UN2" s="2">
-        <v>-2.93784522865906</v>
+        <v>-0.009375151337706779</v>
       </c>
       <c r="UO2" s="2">
-        <v>-2.9135370551144</v>
+        <v>-0.00273265190143357</v>
       </c>
       <c r="UP2" s="2">
-        <v>-2.93759995659893</v>
+        <v>-0.0184221359365359</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-2.8947148578839</v>
+        <v>-0.0168260345581959</v>
       </c>
       <c r="UR2" s="2">
-        <v>-2.87670614816191</v>
+        <v>-0.0111549243419671</v>
       </c>
       <c r="US2" s="2">
-        <v>-2.88686728809358</v>
+        <v>-0.00379629208786472</v>
       </c>
       <c r="UT2" s="2">
-        <v>-2.87815768447353</v>
+        <v>-0.0158206557409151</v>
       </c>
       <c r="UU2" s="2">
-        <v>-2.88236293363989</v>
+        <v>-0.0123738432488488</v>
       </c>
       <c r="UV2" s="2">
-        <v>-2.87925075038854</v>
+        <v>-0.0219265127341686</v>
       </c>
       <c r="UW2" s="2">
-        <v>-2.86319471772047</v>
+        <v>-0.010329371185369</v>
       </c>
       <c r="UX2" s="2">
-        <v>-2.87482964639715</v>
+        <v>-0.0237387453629034</v>
       </c>
       <c r="UY2" s="2">
-        <v>-2.84769387096753</v>
+        <v>-0.0173213206308901</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-2.83446739775482</v>
+        <v>-0.00588378685187962</v>
       </c>
       <c r="VA2" s="2">
-        <v>-2.83452032855354</v>
+        <v>-0.0188546108863389</v>
       </c>
       <c r="VB2" s="2">
-        <v>-2.83441930266177</v>
+        <v>-0.0116936095601438</v>
       </c>
       <c r="VC2" s="2">
-        <v>-2.85263428127674</v>
+        <v>-0.0185260340497275</v>
       </c>
       <c r="VD2" s="2">
-        <v>-2.82638659506629</v>
+        <v>-0.0156398921451754</v>
       </c>
       <c r="VE2" s="2">
-        <v>-2.84495618836831</v>
+        <v>-0.0191855875889475</v>
       </c>
       <c r="VF2" s="2">
-        <v>-2.85541998254406</v>
+        <v>-0.0134729699043309</v>
       </c>
       <c r="VG2" s="2">
-        <v>-2.83373572425215</v>
+        <v>-0.0194276825558005</v>
       </c>
       <c r="VH2" s="2">
-        <v>-2.82165574259618</v>
+        <v>-0.0126635188340894</v>
       </c>
       <c r="VI2" s="2">
-        <v>-2.84285401773237</v>
+        <v>-0.008482928425435949</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-2.82856288489593</v>
+        <v>-0.0169445113110404</v>
       </c>
       <c r="VK2" s="2">
-        <v>-2.83394168158124</v>
+        <v>-0.0122086712880892</v>
       </c>
       <c r="VL2" s="2">
-        <v>-2.84677075904929</v>
+        <v>-0.0118545575879042</v>
       </c>
       <c r="VM2" s="2">
-        <v>-2.81720134849639</v>
+        <v>-0.00234587583259311</v>
       </c>
       <c r="VN2" s="2">
-        <v>-2.85678809470845</v>
+        <v>-0.0155083999391302</v>
       </c>
       <c r="VO2" s="2">
-        <v>-2.84034033930504</v>
+        <v>-0.00703365774582501</v>
       </c>
       <c r="VP2" s="2">
-        <v>-2.83836685626835</v>
+        <v>-0.00381247457988642</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-2.84477489081383</v>
+        <v>-0.0107818210224357</v>
       </c>
       <c r="VR2" s="2">
-        <v>-2.83997741919096</v>
+        <v>-0.0192319983923238</v>
       </c>
       <c r="VS2" s="2">
-        <v>-2.85588782272474</v>
+        <v>-0.00993808644385967</v>
       </c>
       <c r="VT2" s="2">
-        <v>-2.85624118898444</v>
+        <v>-0.00296570595146183</v>
       </c>
       <c r="VU2" s="2">
-        <v>-2.88178499652339</v>
+        <v>-0.0251129702896042</v>
       </c>
       <c r="VV2" s="2">
-        <v>-2.89845617297158</v>
+        <v>-0.0281500385463923</v>
       </c>
       <c r="VW2" s="2">
-        <v>-2.90267244294391</v>
+        <v>-0.0196335256188481</v>
       </c>
       <c r="VX2" s="2">
-        <v>-2.89068322054145</v>
+        <v>-0.0130892660659837</v>
       </c>
       <c r="VY2" s="2">
-        <v>-2.89963734494422</v>
+        <v>-0.0129512960997696</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-2.90807083083066</v>
+        <v>0.000561898824127706</v>
       </c>
       <c r="WA2" s="2">
-        <v>-2.92818753752863</v>
+        <v>-0.0223555670952107</v>
       </c>
       <c r="WB2" s="2">
-        <v>-2.9639449875162</v>
+        <v>-0.0171845985201306</v>
       </c>
       <c r="WC2" s="2">
-        <v>-2.95474753058132</v>
+        <v>0.000914975582096148</v>
       </c>
       <c r="WD2" s="2">
-        <v>-2.94903440402576</v>
+        <v>-0.008694886427201219</v>
       </c>
       <c r="WE2" s="2">
-        <v>-2.98301320951586</v>
+        <v>-0.0113299389371749</v>
       </c>
       <c r="WF2" s="2">
-        <v>-2.98364762419081</v>
+        <v>-0.00362043952533404</v>
       </c>
       <c r="WG2" s="2">
-        <v>-2.97771418629349</v>
+        <v>-0.00495464467579268</v>
       </c>
       <c r="WH2" s="2">
-        <v>-2.99287458863829</v>
+        <v>-0.0141821678842112</v>
       </c>
       <c r="WI2" s="2">
-        <v>-3.0273484352374</v>
+        <v>-0.022448727803281</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-3.03385128096172</v>
+        <v>-0.0211385252851459</v>
       </c>
       <c r="WK2" s="2">
-        <v>-3.05539279002733</v>
+        <v>-0.0121279312243488</v>
       </c>
       <c r="WL2" s="2">
-        <v>-3.03919060321671</v>
+        <v>-0.0101001088295662</v>
       </c>
       <c r="WM2" s="2">
-        <v>-3.06605488393845</v>
+        <v>-0.00565512423076689</v>
       </c>
       <c r="WN2" s="2">
-        <v>-3.10169719792318</v>
+        <v>-0.0185737739793133</v>
       </c>
       <c r="WO2" s="2">
-        <v>-3.07434762407912</v>
+        <v>-0.0136447439905745</v>
       </c>
       <c r="WP2" s="2">
-        <v>-3.10933273389321</v>
+        <v>-0.0130491904475215</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-3.10560462826522</v>
+        <v>-0.0211232696320777</v>
       </c>
       <c r="WR2" s="2">
-        <v>-3.1620500381823</v>
+        <v>-0.0112991109104603</v>
       </c>
       <c r="WS2" s="2">
-        <v>-3.14063634143217</v>
+        <v>-0.0157525140482053</v>
       </c>
       <c r="WT2" s="2">
-        <v>-3.18593557328692</v>
+        <v>-0.0276692182303486</v>
       </c>
       <c r="WU2" s="2">
-        <v>-3.20049258855655</v>
+        <v>-0.0121319025997034</v>
       </c>
       <c r="WV2" s="2">
-        <v>-3.19351442888098</v>
+        <v>-0.019117051465945</v>
       </c>
       <c r="WW2" s="2">
-        <v>-3.21522315730192</v>
+        <v>-0.0289161150557985</v>
       </c>
       <c r="WX2" s="2">
-        <v>-3.22707596114431</v>
+        <v>0.00833211611461491</v>
       </c>
       <c r="WY2" s="2">
-        <v>-3.25372591420607</v>
+        <v>-0.0168030948252853</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-3.25851760802094</v>
+        <v>-0.00258143820580643</v>
       </c>
       <c r="XA2" s="2">
-        <v>-3.2811835596759</v>
+        <v>-0.0147379383512568</v>
       </c>
       <c r="XB2" s="2">
-        <v>-3.28968472510831</v>
+        <v>-0.0147376733508563</v>
       </c>
       <c r="XC2" s="2">
-        <v>-3.28292701741341</v>
+        <v>-0.017487911037602</v>
       </c>
       <c r="XD2" s="2">
-        <v>-3.30543702983972</v>
+        <v>-0.0026846336881835</v>
       </c>
       <c r="XE2" s="2">
-        <v>-3.29015669901153</v>
+        <v>-0.00373211594018858</v>
       </c>
       <c r="XF2" s="2">
-        <v>-3.30822867380487</v>
+        <v>-0.00911235260337803</v>
       </c>
       <c r="XG2" s="2">
-        <v>-3.32623963521889</v>
+        <v>-0.0144459512663536</v>
       </c>
       <c r="XH2" s="2">
-        <v>-3.35590908039577</v>
+        <v>-0.0116380837037168</v>
       </c>
       <c r="XI2" s="2">
-        <v>-3.34558707603846</v>
+        <v>-0.0156250563394175</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-3.32848844569623</v>
+        <v>-0.00969849867508538</v>
       </c>
       <c r="XK2" s="2">
-        <v>-3.34916379115305</v>
+        <v>-0.0115825143629726</v>
       </c>
       <c r="XL2" s="2">
-        <v>-3.35535184928849</v>
+        <v>-0.009875813651106371</v>
       </c>
       <c r="XM2" s="2">
-        <v>-3.33379800239939</v>
+        <v>-0.0041019579193543</v>
       </c>
       <c r="XN2" s="2">
-        <v>-3.32030775963352</v>
+        <v>-0.0208475427379576</v>
       </c>
       <c r="XO2" s="2">
-        <v>-3.3169782273014</v>
+        <v>-0.0117303260745443</v>
       </c>
       <c r="XP2" s="2">
-        <v>-3.30330674102706</v>
+        <v>-0.0138504353795468</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-3.30836876983045</v>
+        <v>-0.0204721275244129</v>
       </c>
       <c r="XR2" s="2">
-        <v>-3.28455764635131</v>
+        <v>-0.000608776434891286</v>
       </c>
       <c r="XS2" s="2">
-        <v>-3.28618249624673</v>
+        <v>-0.0177133342048688</v>
       </c>
       <c r="XT2" s="2">
-        <v>-3.28532479276457</v>
+        <v>-0.00801374811407245</v>
       </c>
       <c r="XU2" s="2">
-        <v>-3.27663920987167</v>
+        <v>-0.0194441166523977</v>
       </c>
       <c r="XV2" s="2">
-        <v>-3.25781104862435</v>
+        <v>-0.0188085689018227</v>
       </c>
       <c r="XW2" s="2">
-        <v>-3.22595141082541</v>
+        <v>-0.0227508017116319</v>
       </c>
       <c r="XX2" s="2">
-        <v>-3.22141579735976</v>
+        <v>-0.00340891312903244</v>
       </c>
       <c r="XY2" s="2">
-        <v>-3.17999560641636</v>
+        <v>-0.00231094260408768</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-3.20966293025522</v>
+        <v>-0.0120903824385355</v>
       </c>
       <c r="YA2" s="2">
-        <v>-3.16374137448276</v>
+        <v>-0.00741956537501224</v>
       </c>
       <c r="YB2" s="2">
-        <v>-3.15837259708625</v>
+        <v>-0.0193988222528746</v>
       </c>
       <c r="YC2" s="2">
-        <v>-3.11947634332826</v>
+        <v>-0.0193925536996756</v>
       </c>
       <c r="YD2" s="2">
-        <v>-3.11744253884634</v>
+        <v>-0.0256200460090213</v>
       </c>
       <c r="YE2" s="2">
-        <v>-3.1066701320731</v>
+        <v>-0.0154638874923113</v>
       </c>
       <c r="YF2" s="2">
-        <v>-3.07426446679161</v>
+        <v>-0.0143140732025905</v>
       </c>
       <c r="YG2" s="2">
-        <v>-3.0717340771325</v>
+        <v>-0.0145171278529882</v>
       </c>
       <c r="YH2" s="2">
-        <v>-3.0573163761769</v>
+        <v>-0.00698221640145221</v>
       </c>
       <c r="YI2" s="2">
-        <v>-3.03135151263968</v>
+        <v>-0.0116598157190783</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-2.99689808058687</v>
+        <v>-0.0177477778708118</v>
       </c>
       <c r="YK2" s="2">
-        <v>-2.98198965154366</v>
+        <v>-0.009134207545408959</v>
       </c>
       <c r="YL2" s="2">
-        <v>-2.96486293333353</v>
+        <v>-0.00919660527563565</v>
       </c>
       <c r="YM2" s="2">
-        <v>-2.95129221691207</v>
+        <v>-0.0055501251560801</v>
       </c>
       <c r="YN2" s="2">
-        <v>-2.92335774979763</v>
+        <v>-0.0155121413922106</v>
       </c>
       <c r="YO2" s="2">
-        <v>-2.9313553408627</v>
+        <v>-0.00589982856210625</v>
       </c>
       <c r="YP2" s="2">
-        <v>-2.8923073272333</v>
+        <v>-0.0188993199286641</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-2.87545592207169</v>
+        <v>-0.0127936439916042</v>
       </c>
       <c r="YR2" s="2">
-        <v>-2.8523058429428</v>
+        <v>-0.00847146942576216</v>
       </c>
       <c r="YS2" s="2">
-        <v>-2.84820851470538</v>
+        <v>-0.0234992129457478</v>
       </c>
       <c r="YT2" s="2">
-        <v>-2.83711641948678</v>
+        <v>-0.0102270457662527</v>
       </c>
       <c r="YU2" s="2">
-        <v>-2.80090611566047</v>
+        <v>-0.0151544471891018</v>
       </c>
       <c r="YV2" s="2">
-        <v>-2.79673670631937</v>
+        <v>-0.0125386997361757</v>
       </c>
       <c r="YW2" s="2">
-        <v>-2.78135306041102</v>
+        <v>-0.00656712621956241</v>
       </c>
       <c r="YX2" s="2">
-        <v>-2.79423749564248</v>
+        <v>-0.0196025719838998</v>
       </c>
       <c r="YY2" s="2">
-        <v>-2.73724736896256</v>
+        <v>-0.0208553887475858</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-2.73371648828331</v>
+        <v>-0.0134357594601347</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-2.70745867827225</v>
+        <v>-0.00583319869349424</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-2.718176943569</v>
+        <v>-0.00853276074807763</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-2.71246694746463</v>
+        <v>-0.00416868800653783</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-2.6649972096227</v>
+        <v>-0.007855934540518261</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-2.69804444290033</v>
+        <v>-0.014473005590762</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-2.67494519062408</v>
+        <v>-0.00913936201708199</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-2.64851601794722</v>
+        <v>-0.0112355200753703</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-2.64205125542416</v>
+        <v>-0.0240384216860114</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-2.62131160415799</v>
+        <v>-0.0138869708677816</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-2.62894363998508</v>
+        <v>-0.0125462579662199</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-2.63511289187553</v>
+        <v>-0.0138515319476645</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-2.63451759603762</v>
+        <v>-0.00507151206205202</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-2.61253526238316</v>
+        <v>-0.0115301444571703</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-2.58730887304738</v>
+        <v>-0.00347036731076595</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-2.57223875837738</v>
+        <v>-0.009638268339184391</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-2.59506253923267</v>
+        <v>-0.0210214043123503</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-2.58630455244261</v>
+        <v>-0.0185095850371529</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-2.58834944464757</v>
+        <v>-0.00724077268266974</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-2.57470103120453</v>
+        <v>-0.0265588888782355</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-2.56795000404982</v>
+        <v>-0.00459509823692342</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-2.58705668432101</v>
+        <v>-0.0136348593591724</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-2.57958954875682</v>
+        <v>-0.0188909736571334</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-2.57957058883335</v>
+        <v>-0.00755298191639157</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-2.59024942749842</v>
+        <v>-0.00391431154934148</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-2.56308929425191</v>
+        <v>-0.0169103700065172</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-2.56271846692095</v>
+        <v>-0.0168185212169177</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-2.57264717665177</v>
+        <v>-0.0183554260801558</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-2.56950527006101</v>
+        <v>-0.0187529054664434</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-2.56248807277933</v>
+        <v>-0.00997819851035167</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-2.57946639761184</v>
+        <v>-0.0175182398450743</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-2.55302368396975</v>
+        <v>-0.010781534712959</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-2.55265417918548</v>
+        <v>-0.0126755359206914</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-2.56850673875132</v>
+        <v>-0.00814050495061156</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-2.56154284475851</v>
+        <v>-0.0041596956313066</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-2.5428193660053</v>
+        <v>-0.01108307238661</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-2.5784893319897</v>
+        <v>-0.0184931680027394</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-2.57020899845657</v>
+        <v>-0.00908000113220101</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-2.57834124818072</v>
+        <v>-0.00182280420112621</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-2.6027134298025</v>
+        <v>-0.00638326279217314</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-2.56753830597266</v>
+        <v>-0.00892494046925035</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-2.57428193100841</v>
+        <v>-0.0103740891480438</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-2.59537850518809</v>
+        <v>-0.0197679152241086</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-2.56166302612368</v>
+        <v>-0.00802952520344565</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-2.6025105229971</v>
+        <v>-0.00529262674206813</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-2.5814341269729</v>
+        <v>-0.00765790768692587</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-2.59177778590348</v>
+        <v>-0.0283119564608484</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-2.60211814194614</v>
+        <v>-0.00710244919665819</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-2.57695621730508</v>
+        <v>-0.0177875738602334</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-2.57913262337817</v>
+        <v>-0.00668190021225994</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-2.58780690229096</v>
+        <v>-0.00573415008032463</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-2.58273492075312</v>
+        <v>-0.0231466527013869</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-2.57682337799871</v>
+        <v>-0.009867035236620129</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-2.59935366271475</v>
+        <v>-0.0201182538026555</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-2.6063421972594</v>
+        <v>-0.0117143329205279</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-2.60667937672902</v>
+        <v>-0.00162442249797368</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-2.60717361308366</v>
+        <v>-0.0126932224848779</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-2.59495594803906</v>
+        <v>-0.008049701630981921</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-2.61267554260285</v>
+        <v>-0.0161642951369322</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-2.61473993664938</v>
+        <v>-0.009825616368387269</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-2.59075184814819</v>
+        <v>-0.020584368526132</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-2.61774200180269</v>
+        <v>-0.0167759786925037</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-2.60823783605498</v>
+        <v>-0.008235542649952909</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-2.59857899518306</v>
+        <v>-0.014209060993518</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-2.61555194549823</v>
+        <v>-0.001825356828981</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-2.62846345328269</v>
+        <v>-0.011229954744309</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-2.60030922141979</v>
+        <v>-0.0145588484225657</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-2.58336739150616</v>
+        <v>-0.00567026240599651</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-2.62791119825297</v>
+        <v>-0.00300226937658934</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-2.61949109861068</v>
+        <v>-0.00912804463092734</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-2.60642049618286</v>
+        <v>-0.0160145755788571</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-2.62298807269946</v>
+        <v>-0.0184146430670479</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-2.591140071636</v>
+        <v>-0.010857405098339</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-2.61189585879416</v>
+        <v>-0.00595574684732901</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-2.60920236842769</v>
+        <v>-0.00645103324571101</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-2.60428240568693</v>
+        <v>-0.0186047724015591</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-2.59879005536281</v>
+        <v>-0.00346593222804037</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-2.61403697188335</v>
+        <v>-0.0146827414731484</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-2.62560365831379</v>
+        <v>-0.00187596553948349</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-2.61213719611792</v>
+        <v>-0.0160870465326098</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-2.61225359044986</v>
+        <v>-0.00739047867407161</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-2.63045938718109</v>
+        <v>-0.009336150963597609</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-2.62091512871774</v>
+        <v>-0.0135263220149782</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-2.60566857499936</v>
+        <v>0.00135581382065184</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-2.61927688725173</v>
+        <v>-0.00553433315419682</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-2.60919027389045</v>
+        <v>-0.0193537971036776</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-2.62033547063992</v>
+        <v>-0.00675654314703327</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-2.62300369296075</v>
+        <v>-0.00491718343741209</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-2.61490343473784</v>
+        <v>-0.0204733390124916</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-2.61001637714545</v>
+        <v>0.00830493850706155</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-2.6269283438548</v>
+        <v>0.00342787340505023</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-2.61936774878908</v>
+        <v>-0.00109990410917915</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-2.62773698315705</v>
+        <v>-0.0112950668148537</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-2.63070655253262</v>
+        <v>-0.00366393710647418</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-2.6093153129776</v>
+        <v>-0.0194107327957943</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-2.62416014658428</v>
+        <v>-0.0127955409067475</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-2.59011744057905</v>
+        <v>-0.0103047172623243</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-2.61022088486023</v>
+        <v>-0.0178060679470116</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-2.60039398687481</v>
+        <v>-0.0101513401084623</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-2.61720621964932</v>
+        <v>-0.0114621126068105</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-2.60275565298123</v>
+        <v>-0.0183763817530066</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-2.63183435197585</v>
+        <v>-0.00948952204951858</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-2.62213461866261</v>
+        <v>-0.008505671154140519</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-2.59282560954003</v>
+        <v>-0.00137547132740833</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-2.59085866327187</v>
+        <v>-0.00906313042598317</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-2.62501422983916</v>
+        <v>-0.0157510469425337</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-2.60659111971022</v>
+        <v>-0.00726712252556891</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-2.641354641316</v>
+        <v>-0.0209628651051328</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-2.59106586566819</v>
+        <v>-0.00880977680612534</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-2.61517579822141</v>
+        <v>-0.0194321793259387</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-2.625656963587</v>
+        <v>-0.0153863985826221</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-2.62182133091618</v>
+        <v>-0.0180216714823746</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-2.62824128361471</v>
+        <v>-0.0183927386102846</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-2.62799585857296</v>
+        <v>-0.00616426093916323</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-2.62449644591759</v>
+        <v>-0.0167041844584555</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-2.60834451800272</v>
+        <v>-0.0139962499113386</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-2.6087847013764</v>
+        <v>-0.00702486923956495</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-2.60759794071069</v>
+        <v>-0.00927077527777237</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-2.62286347375617</v>
+        <v>-0.00631351280055525</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-2.60605308944467</v>
+        <v>-0.0230095856908821</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-2.58702820182399</v>
+        <v>-0.0130241228787591</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-2.57265763096736</v>
+        <v>-0.0178859057261751</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-2.5861917401356</v>
+        <v>-0.0122511219779528</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-2.58283567696766</v>
+        <v>-0.00461891041192261</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-2.60272500118249</v>
+        <v>-0.012576468746778</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-2.56158966616294</v>
+        <v>-0.00952210318673838</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-2.58359311471182</v>
+        <v>-0.0140819538884981</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-2.56313840234716</v>
+        <v>-0.0146105691234598</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-2.56152333124871</v>
+        <v>-0.0085773282345945</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-2.54594245983214</v>
+        <v>-0.0204263294470363</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-2.53659164415265</v>
+        <v>0.0018336518648032</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-2.50996785585677</v>
+        <v>-0.0157548675816542</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-2.53629850187336</v>
+        <v>-0.012626425293588</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-2.51637009604035</v>
+        <v>-0.0214318727892645</v>
       </c>
       <c r="AED2" s="2">
-        <v>-2.51031930235594</v>
+        <v>-0.00338573399835263</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-2.49261291028198</v>
+        <v>-0.00749666482462454</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-2.48157717502312</v>
+        <v>-0.00983632085923309</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-2.49679987395332</v>
+        <v>-0.0138871535419295</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-2.46265458697322</v>
+        <v>-0.015167134495836</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-2.44651038447748</v>
+        <v>-0.0210477487523167</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-2.45623883921311</v>
+        <v>-0.0174531521802689</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-2.44943965360084</v>
+        <v>-0.0127257067057611</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-2.42617505900921</v>
+        <v>0.00313198319124737</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-2.41920593780362</v>
+        <v>-0.0224827557560198</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-2.39255903525549</v>
+        <v>-0.01307879972175</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-2.39153943403535</v>
+        <v>0.00335542998708016</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-2.36305384552522</v>
+        <v>-0.0224829188519009</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-2.35381574035045</v>
+        <v>-0.00761648804385769</v>
       </c>
       <c r="AER2" s="2">
-        <v>-2.38478378600821</v>
+        <v>-0.0236705524057804</v>
       </c>
       <c r="AES2" s="2">
-        <v>-2.35521764135967</v>
+        <v>-0.0156139543645278</v>
       </c>
       <c r="AET2" s="2">
-        <v>-2.3562799949867</v>
+        <v>-0.0266990130663639</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-2.33557419498983</v>
+        <v>-0.0119477015597416</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-2.33620020355448</v>
+        <v>-0.0122755104719971</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-2.31375096910858</v>
+        <v>-0.00696513572392986</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-2.28800938252808</v>
+        <v>-0.0112045498282087</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-2.30934335198926</v>
+        <v>-0.0276340831362661</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-2.28386896144917</v>
+        <v>-0.023983897619863</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-2.30276692114223</v>
+        <v>-0.00893147960180765</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-2.2848663966254</v>
+        <v>-0.0193480462972774</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-2.28205439971095</v>
+        <v>-0.0123916717664756</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-2.2465593013085</v>
+        <v>-0.0204955714368363</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-2.24180075578566</v>
+        <v>-0.0193717812621039</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-2.22269373775579</v>
+        <v>-0.0241008884145556</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-2.22268142225553</v>
+        <v>-0.0137398617132685</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-2.21736613953442</v>
+        <v>-0.0131804736843751</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-2.20611428133623</v>
+        <v>-0.0141784079749932</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-2.20119764073182</v>
+        <v>-0.0247508334145784</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-2.1917320802759</v>
+        <v>-0.0169195762680429</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-2.17207979868613</v>
+        <v>-0.0129973494684146</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-2.18315228484369</v>
+        <v>-0.014098004087798</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-2.18072513162038</v>
+        <v>-0.0159705042635081</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-2.15491227365919</v>
+        <v>-0.0167670485294626</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-2.16674177820446</v>
+        <v>-0.0187016435012035</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-2.15159265395162</v>
+        <v>-0.0265146022608019</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-2.15270590023166</v>
+        <v>-0.0281199942037869</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-2.13450504793461</v>
+        <v>-0.017531458613483</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-2.12128353647792</v>
+        <v>-0.0205765516479638</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-2.13467122963954</v>
+        <v>-0.0271258520732673</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-2.12488218280238</v>
+        <v>-0.0243589329629388</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-2.11388271258919</v>
+        <v>-0.021463389514562</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-2.11222353899828</v>
+        <v>-0.0167812565487257</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-2.08444954502586</v>
+        <v>-0.0173058084554035</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-2.10048142416499</v>
+        <v>-0.017806160237387</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-2.12301384862228</v>
+        <v>-0.0212795057284272</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-2.08031471459936</v>
+        <v>-0.0235445994066684</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-2.09444687546477</v>
+        <v>-0.0209958429148932</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-2.07870979489132</v>
+        <v>-0.0185469821557266</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-2.08311249731005</v>
+        <v>-0.0193645050364063</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-2.10593000545648</v>
+        <v>-0.0217368899685532</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-2.06517920885518</v>
+        <v>-0.0242302838368324</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-2.09505048875877</v>
+        <v>-0.0125681335073169</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-2.04606811222881</v>
+        <v>-0.0190133907668351</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-2.0539541953166</v>
+        <v>0.00110257758623804</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-2.06062234466872</v>
+        <v>-0.0183893242467785</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-2.06758443688414</v>
+        <v>-0.0131520632648247</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-2.06500819325121</v>
+        <v>-0.00830184001308323</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-2.06310454598771</v>
+        <v>-0.00728012470989738</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-2.05780655153238</v>
+        <v>-0.00723085695639893</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-2.0710855939495</v>
+        <v>-0.0184500837259947</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-2.04113987484301</v>
+        <v>-0.0128268961876139</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-2.03198478038999</v>
+        <v>-0.0101302522599963</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-2.06393829890908</v>
+        <v>-0.0214288873239429</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-2.05301827184298</v>
+        <v>-0.0149168647338213</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-2.06351056735696</v>
+        <v>-0.0215274006918405</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-2.06229936094405</v>
+        <v>-0.0152235260452174</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-2.07273202383784</v>
+        <v>-0.0103802417663032</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-2.06587747805023</v>
+        <v>-0.00523605155196494</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-2.05671872481894</v>
+        <v>-0.0252990657365641</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-2.05391291457959</v>
+        <v>-0.0149428438983376</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-2.08256056280819</v>
+        <v>0.00065523023406998</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-2.06774836728804</v>
+        <v>-0.0295648802796655</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-2.06999026371788</v>
+        <v>-0.011442694015429</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-2.08354791621403</v>
+        <v>-0.0123783508852273</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-2.09871644296332</v>
+        <v>-0.0190929624357864</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-2.10195405025693</v>
+        <v>-0.016823716009509</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-2.10638543411528</v>
+        <v>-0.0144391031486583</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-2.12762779956871</v>
+        <v>-0.0170359760411738</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-2.11738343827453</v>
+        <v>-0.0110930902334708</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-2.13097297280032</v>
+        <v>-0.0198449232351823</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-2.12001757004548</v>
+        <v>-0.00517169193990748</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-2.16176141878716</v>
+        <v>-0.0146158769665181</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-2.17678505229313</v>
+        <v>-0.0127280950028369</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-2.14980537452065</v>
+        <v>-0.0180622796877259</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-2.1393730174836</v>
+        <v>-0.0105417160407507</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-2.17908330864348</v>
+        <v>-0.0172798378175209</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-2.17353496183499</v>
+        <v>-0.0142039999063646</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-2.19886945791437</v>
+        <v>-0.0165033823218111</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-2.19018117404406</v>
+        <v>-0.0134301356227743</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-2.19497716519963</v>
+        <v>-0.0193148259166088</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-2.2211364567062</v>
+        <v>-0.0061842568283676</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-2.21701566313024</v>
+        <v>-0.008950035694268371</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-2.23495578719399</v>
+        <v>-0.00566426777717814</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-2.24131570777219</v>
+        <v>-0.0205198603662963</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-2.25267856038599</v>
+        <v>-0.00966881729405142</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-2.27384154942782</v>
+        <v>-0.00460035838592868</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-2.28334719153868</v>
+        <v>-0.0111730761923667</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-2.30668590026471</v>
+        <v>-0.00800603095989838</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-2.30457896405462</v>
+        <v>-0.01797755531211</v>
       </c>
       <c r="AID2" s="2">
-        <v>-2.33064231985436</v>
+        <v>-0.017882874338839</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-2.33280048455444</v>
+        <v>-0.0129186989234036</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-2.36004356395089</v>
+        <v>-0.00818496725939254</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-2.36273952040402</v>
+        <v>-0.0296033673584719</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-2.37776483909798</v>
+        <v>-0.0238125254168059</v>
       </c>
       <c r="AII2" s="2">
-        <v>-2.38793298417328</v>
+        <v>-0.0148792334850191</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-2.41386249171981</v>
+        <v>-0.0149409072534772</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-2.42468937380657</v>
+        <v>-0.0196495158798419</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-2.40756226587797</v>
+        <v>-0.0230321141999758</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-2.45005181991465</v>
+        <v>-0.0141979698122229</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-2.436998646071</v>
+        <v>-0.0179862621684419</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-2.45589979007355</v>
+        <v>-0.00683721708044726</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-2.46429001554252</v>
+        <v>-0.0149076972935734</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-2.46698486831669</v>
+        <v>-0.0137238017093326</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-2.49726667769134</v>
+        <v>-0.0157074410163408</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-2.4856412877097</v>
+        <v>-0.0160806915569345</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-2.49416325247158</v>
+        <v>-0.00392290558171695</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-2.52713370604265</v>
+        <v>-0.015312689106672</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-2.52101473039692</v>
+        <v>-0.0257183420507241</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-2.55963540808701</v>
+        <v>-0.0108409831387591</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-2.56964235196137</v>
+        <v>-0.009317124735368181</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-2.55588117068906</v>
+        <v>-0.0141735532593362</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-2.57734067278065</v>
+        <v>-0.00440534776179329</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-2.59307910578758</v>
+        <v>-0.0118257322738228</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-2.5784203958692</v>
+        <v>-0.0205826383273231</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-2.60820907920083</v>
+        <v>-0.0135881422719025</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-2.62014730209792</v>
+        <v>-0.0117169402883873</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-2.65332076519736</v>
+        <v>-0.0056230899165987</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-2.62321961205154</v>
+        <v>-0.0193492507300133</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-2.64148149978134</v>
+        <v>-0.028645781373868</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-2.64688549232966</v>
+        <v>-0.020430076488973</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-2.63638405681966</v>
+        <v>-0.0229219910899762</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-2.66089564100607</v>
+        <v>-0.00720822294646092</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-2.64071470887239</v>
+        <v>-0.00706707881423915</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-2.65387649580502</v>
+        <v>-0.0266940110632876</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-2.67693976365682</v>
+        <v>-0.0241032971616939</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-2.68683603833469</v>
+        <v>-0.0122953143004118</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-2.64968380189893</v>
+        <v>-0.0198412974281253</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-2.69218111560374</v>
+        <v>-0.0191582288624353</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-2.68925728329268</v>
+        <v>-0.00389960436416992</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-2.67719659123685</v>
+        <v>-0.0105764125570568</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-2.68639919478479</v>
+        <v>-0.019984277945668</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-2.67451806096316</v>
+        <v>-0.0191124510015824</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-2.65838307466154</v>
+        <v>-0.014089835269439</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-2.6779354738708</v>
+        <v>-0.0126948746994768</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-2.67163267710673</v>
+        <v>-0.00238931506423029</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-2.68662569720936</v>
+        <v>-0.0323169295811692</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-2.66619494519919</v>
+        <v>-0.025275941577438</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-2.65793137569299</v>
+        <v>-0.021683330713318</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-2.69067188683721</v>
+        <v>-0.0137074691835521</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-2.65900961081839</v>
+        <v>-0.0277323050996873</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-2.65320253811873</v>
+        <v>-0.00610720470609295</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-2.64386616945741</v>
+        <v>-0.0168888652696853</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-2.64507708429457</v>
+        <v>-0.019947617407195</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-2.65214740882571</v>
+        <v>-0.0141597207247201</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-2.61181786901199</v>
+        <v>-0.0190058724918801</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-2.62370475993167</v>
+        <v>-0.0250067073380185</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-2.61703530985189</v>
+        <v>-0.00554778862685412</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-2.61739880806053</v>
+        <v>-0.00544513653580175</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-2.59534226382696</v>
+        <v>-0.0177576621688029</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-2.61837934167375</v>
+        <v>-0.013997679239668</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-2.62392034460956</v>
+        <v>-0.0124396578908107</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-2.60115683299543</v>
+        <v>-0.0216289788211708</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-2.58235175891077</v>
+        <v>0.00220845300556039</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-2.57736041624063</v>
+        <v>-0.00704300730627871</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-2.55641079783001</v>
+        <v>-0.0106943693195825</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-2.53790582264196</v>
+        <v>-0.00615494161125875</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-2.54533936689528</v>
+        <v>-0.0203284950777831</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-2.53814384592377</v>
+        <v>-0.0166410063277263</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-2.53710374428166</v>
+        <v>-0.0280550805558757</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-2.53738941157148</v>
+        <v>-0.0115022010811352</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-2.49466219978025</v>
+        <v>0.00713860871147674</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-2.48294132930818</v>
+        <v>-0.0305208272138991</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-2.5134841449704</v>
+        <v>-0.0134774083416254</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-2.47495012712077</v>
+        <v>-0.008277767641416181</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-2.46703847933992</v>
+        <v>-0.0222256430664938</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-2.4337968600881</v>
+        <v>-0.0124743882014024</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-2.42973754627532</v>
+        <v>-0.00860516856103407</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-2.42516281298249</v>
+        <v>-0.00662020681513899</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-2.39628233881154</v>
+        <v>-0.0264486350982299</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-2.41439250770079</v>
+        <v>-0.0270729118466467</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-2.40384755130276</v>
+        <v>-0.008429553466079889</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-2.40517839270625</v>
+        <v>-0.0189624781797743</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-2.37189231802973</v>
+        <v>-0.0190752755534015</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-2.34961176951735</v>
+        <v>-0.008022177067602131</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-2.36560906628627</v>
+        <v>-0.0167910340617038</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-2.35758054085962</v>
+        <v>-0.0132598251785602</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-2.34948044866628</v>
+        <v>-0.0179838124592967</v>
       </c>
     </row>
   </sheetData>
